--- a/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06421209524366</v>
+        <v>21.60110704626404</v>
       </c>
       <c r="C2">
-        <v>14.67073393004475</v>
+        <v>11.99079360833446</v>
       </c>
       <c r="D2">
-        <v>6.895137702415052</v>
+        <v>6.746036906718007</v>
       </c>
       <c r="E2">
-        <v>15.69769413853284</v>
+        <v>6.027518018987029</v>
       </c>
       <c r="F2">
-        <v>63.30183787243053</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>67.75288700026059</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.65613304066455</v>
+        <v>6.900746546140768</v>
       </c>
       <c r="K2">
-        <v>18.61612686581595</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.761461798232708</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.90496155775504</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47049652121922</v>
+        <v>20.4808815491596</v>
       </c>
       <c r="C3">
-        <v>13.55842233855298</v>
+        <v>11.08046446463312</v>
       </c>
       <c r="D3">
-        <v>6.607683832233318</v>
+        <v>6.383072554163065</v>
       </c>
       <c r="E3">
-        <v>14.50644003050133</v>
+        <v>5.966713911994603</v>
       </c>
       <c r="F3">
-        <v>59.36045989423611</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>64.81376591816583</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.665116176287</v>
+        <v>6.875264438260323</v>
       </c>
       <c r="K3">
-        <v>17.2266627280703</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.80473635969098</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.60753986810542</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45187245292104</v>
+        <v>19.79115018235616</v>
       </c>
       <c r="C4">
-        <v>12.84908747615681</v>
+        <v>10.49778289145645</v>
       </c>
       <c r="D4">
-        <v>6.430031732887278</v>
+        <v>6.154848854245454</v>
       </c>
       <c r="E4">
-        <v>13.74672172910365</v>
+        <v>5.929740666516458</v>
       </c>
       <c r="F4">
-        <v>56.88071467885859</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>62.99207093148102</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.11756774979774</v>
+        <v>6.860273906199528</v>
       </c>
       <c r="K4">
-        <v>16.33836980255579</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.835063646306502</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.4361748216368</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.02631056220259</v>
+        <v>19.50986410850446</v>
       </c>
       <c r="C5">
-        <v>12.55305863939496</v>
+        <v>10.25418180264393</v>
       </c>
       <c r="D5">
-        <v>6.357289035741095</v>
+        <v>6.060511498143704</v>
       </c>
       <c r="E5">
-        <v>13.42966116891729</v>
+        <v>5.914737082910458</v>
       </c>
       <c r="F5">
-        <v>55.85504113965618</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>62.24573075750506</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.89167665829152</v>
+        <v>6.854310862295603</v>
       </c>
       <c r="K5">
-        <v>15.96716831230667</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.848338921243846</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.36913855448756</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.95500396873974</v>
+        <v>19.46315307278627</v>
       </c>
       <c r="C6">
-        <v>12.50347317862767</v>
+        <v>10.2133553432873</v>
       </c>
       <c r="D6">
-        <v>6.345187764183291</v>
+        <v>6.044767039511527</v>
       </c>
       <c r="E6">
-        <v>13.37655269231435</v>
+        <v>5.912248829431803</v>
       </c>
       <c r="F6">
-        <v>55.68381460811778</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>62.1215724892003</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.8540013640595</v>
+        <v>6.853328979156414</v>
       </c>
       <c r="K6">
-        <v>15.90496382740453</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.850597866371245</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.35817518056097</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.44617602081377</v>
+        <v>19.78735712167737</v>
       </c>
       <c r="C7">
-        <v>12.84512376536601</v>
+        <v>10.49452274768024</v>
       </c>
       <c r="D7">
-        <v>6.429052173177685</v>
+        <v>6.153581957972955</v>
       </c>
       <c r="E7">
-        <v>13.74247642534105</v>
+        <v>5.929538100597032</v>
       </c>
       <c r="F7">
-        <v>56.8669434417104</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>62.98202115494802</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.11453246972885</v>
+        <v>6.860192920466505</v>
       </c>
       <c r="K7">
-        <v>16.33340142681173</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.835239004816979</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.43525946737366</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52276719834306</v>
+        <v>21.21538266571411</v>
       </c>
       <c r="C8">
-        <v>14.29246632102551</v>
+        <v>11.68172039865923</v>
       </c>
       <c r="D8">
-        <v>6.796222976369701</v>
+        <v>6.622002040772136</v>
       </c>
       <c r="E8">
-        <v>15.29259164838554</v>
+        <v>6.006460398076711</v>
       </c>
       <c r="F8">
-        <v>61.95507483369406</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>66.74315753167237</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.30713639760872</v>
+        <v>6.891812135108431</v>
       </c>
       <c r="K8">
-        <v>18.14409748119322</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.775585533929515</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.80005386745903</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29757434054415</v>
+        <v>23.99353824989397</v>
       </c>
       <c r="C9">
-        <v>16.93910830098669</v>
+        <v>13.83104601284963</v>
       </c>
       <c r="D9">
-        <v>7.51074274763716</v>
+        <v>7.498488990657755</v>
       </c>
       <c r="E9">
-        <v>18.12663621593048</v>
+        <v>6.161594403624262</v>
       </c>
       <c r="F9">
-        <v>71.48105927389075</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>73.97828352632041</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.74483106411479</v>
+        <v>6.959993713772997</v>
       </c>
       <c r="K9">
-        <v>21.43538891030491</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.689825061878659</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.60656106619584</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.92437302279586</v>
+        <v>26.01890108804483</v>
       </c>
       <c r="C10">
-        <v>18.79623848579901</v>
+        <v>15.31666859898362</v>
       </c>
       <c r="D10">
-        <v>8.039424949972522</v>
+        <v>8.119078431236334</v>
       </c>
       <c r="E10">
-        <v>20.1146507370137</v>
+        <v>6.280538889465204</v>
       </c>
       <c r="F10">
-        <v>78.26016250382175</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>79.21541202019101</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.44876278285691</v>
+        <v>7.015418417884739</v>
       </c>
       <c r="K10">
-        <v>23.72761790672014</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.648092680873506</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.25832104307185</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.09754107352162</v>
+        <v>27.02911734670879</v>
       </c>
       <c r="C11">
-        <v>19.6305558353777</v>
+        <v>15.97641014241305</v>
       </c>
       <c r="D11">
-        <v>8.283041780013191</v>
+        <v>8.397321110341819</v>
       </c>
       <c r="E11">
-        <v>21.00758672114121</v>
+        <v>6.336382804566636</v>
       </c>
       <c r="F11">
-        <v>81.31699487987896</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>81.58679072187499</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.2122131701466</v>
+        <v>7.042213034817999</v>
       </c>
       <c r="K11">
-        <v>24.75226060403683</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.63432168241787</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.56894589988972</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.53972637275155</v>
+        <v>27.42060698224966</v>
       </c>
       <c r="C12">
-        <v>19.9458830819806</v>
+        <v>16.22434776269758</v>
       </c>
       <c r="D12">
-        <v>8.376003482924194</v>
+        <v>8.502219072866302</v>
       </c>
       <c r="E12">
-        <v>21.34504117789301</v>
+        <v>6.357846573475956</v>
       </c>
       <c r="F12">
-        <v>82.4730774259132</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>82.48400829996099</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.50040251252094</v>
+        <v>7.052629574073796</v>
       </c>
       <c r="K12">
-        <v>25.13864068050066</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.629915632609282</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.68875546241548</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.44456620412535</v>
+        <v>27.33637752820186</v>
       </c>
       <c r="C13">
-        <v>19.87798225113588</v>
+        <v>16.17102663623875</v>
       </c>
       <c r="D13">
-        <v>8.355946025084242</v>
+        <v>8.479645925505327</v>
       </c>
       <c r="E13">
-        <v>21.2723768058867</v>
+        <v>6.353208658010173</v>
       </c>
       <c r="F13">
-        <v>82.22411388354793</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>82.29079463144215</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.43836220786413</v>
+        <v>7.050373418827251</v>
       </c>
       <c r="K13">
-        <v>25.05548136078244</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.63082754522782</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.66285234462254</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.13395439160625</v>
+        <v>27.06136447333573</v>
       </c>
       <c r="C14">
-        <v>19.65650432598301</v>
+        <v>15.99684337498346</v>
       </c>
       <c r="D14">
-        <v>8.290673824680537</v>
+        <v>8.405959681929598</v>
       </c>
       <c r="E14">
-        <v>21.03535662254371</v>
+        <v>6.338141857956622</v>
       </c>
       <c r="F14">
-        <v>81.41211969289317</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>81.6606151078073</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.23593593724594</v>
+        <v>7.043064327994762</v>
       </c>
       <c r="K14">
-        <v>24.78407460970146</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.633942614489362</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.57875792944587</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.94346213175756</v>
+        <v>26.89265322689233</v>
       </c>
       <c r="C15">
-        <v>19.52079345747475</v>
+        <v>15.88991838300563</v>
       </c>
       <c r="D15">
-        <v>8.250794066941976</v>
+        <v>8.360768053867366</v>
       </c>
       <c r="E15">
-        <v>20.89011864598067</v>
+        <v>6.328956498451135</v>
       </c>
       <c r="F15">
-        <v>80.9146413869732</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>81.2745405859535</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.11185093752629</v>
+        <v>7.038623851059975</v>
       </c>
       <c r="K15">
-        <v>24.6176505784291</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.63595791499131</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.52753718780779</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.84735107027308</v>
+        <v>25.95878496846223</v>
       </c>
       <c r="C16">
-        <v>18.741574877028</v>
+        <v>15.27326369172028</v>
       </c>
       <c r="D16">
-        <v>8.023587477518737</v>
+        <v>8.100822158948553</v>
       </c>
       <c r="E16">
-        <v>20.05614265086158</v>
+        <v>6.27692974725253</v>
       </c>
       <c r="F16">
-        <v>78.06003847053302</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>79.06027795386879</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.39869613580957</v>
+        <v>7.013702627193743</v>
       </c>
       <c r="K16">
-        <v>23.66036913984337</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.649102397640219</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.23831719370186</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.17002967582586</v>
+        <v>25.43178505936529</v>
       </c>
       <c r="C17">
-        <v>18.26143852199618</v>
+        <v>14.89112522513956</v>
       </c>
       <c r="D17">
-        <v>7.885166469981963</v>
+        <v>7.940386308893902</v>
       </c>
       <c r="E17">
-        <v>19.54221753333631</v>
+        <v>6.245501526839633</v>
       </c>
       <c r="F17">
-        <v>76.30342155657431</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>77.69956539185371</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.95870094651652</v>
+        <v>6.998847422705015</v>
       </c>
       <c r="K17">
-        <v>23.0690984899178</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.6585406225664</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.06460316164616</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77832692189686</v>
+        <v>25.12848998400453</v>
       </c>
       <c r="C18">
-        <v>17.98422431703642</v>
+        <v>14.66978725147479</v>
       </c>
       <c r="D18">
-        <v>7.805824497540834</v>
+        <v>7.847716173501065</v>
       </c>
       <c r="E18">
-        <v>19.24547766025257</v>
+        <v>6.227583491631811</v>
       </c>
       <c r="F18">
-        <v>75.29033903997896</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>76.91581743445903</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.7044736498234</v>
+        <v>6.990449039940466</v>
       </c>
       <c r="K18">
-        <v>22.72724203366664</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.664455916989544</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.96600658632282</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64530941456002</v>
+        <v>25.02576178704034</v>
       </c>
       <c r="C19">
-        <v>17.89015938881064</v>
+        <v>14.59456952932522</v>
       </c>
       <c r="D19">
-        <v>7.779000897279776</v>
+        <v>7.816269305667093</v>
       </c>
       <c r="E19">
-        <v>19.14478437402744</v>
+        <v>6.221542151731946</v>
       </c>
       <c r="F19">
-        <v>74.94679632812228</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>76.65024449624312</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.61817788771252</v>
+        <v>6.987629375564857</v>
       </c>
       <c r="K19">
-        <v>22.61116450354547</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.666540665113282</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.93284621473511</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.24234471513203</v>
+        <v>25.48790183466532</v>
       </c>
       <c r="C20">
-        <v>18.3126529113677</v>
+        <v>14.93196130032876</v>
       </c>
       <c r="D20">
-        <v>7.899871580181085</v>
+        <v>7.957504762652019</v>
       </c>
       <c r="E20">
-        <v>19.59703784326199</v>
+        <v>6.248830248023093</v>
       </c>
       <c r="F20">
-        <v>76.49068291704305</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>77.84452467012962</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.00565358578972</v>
+        <v>7.000413395275645</v>
       </c>
       <c r="K20">
-        <v>23.13221741219572</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.657485138864256</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.08295785243721</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.22523502297267</v>
+        <v>27.14219522648127</v>
       </c>
       <c r="C21">
-        <v>19.72156610876608</v>
+        <v>16.04805286302263</v>
       </c>
       <c r="D21">
-        <v>8.309824159108777</v>
+        <v>8.427614670246278</v>
       </c>
       <c r="E21">
-        <v>21.10498487072117</v>
+        <v>6.34255813966239</v>
       </c>
       <c r="F21">
-        <v>81.65063933832671</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>81.84572710477462</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.29541120208401</v>
+        <v>7.045203480877121</v>
       </c>
       <c r="K21">
-        <v>24.86382870520014</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.633005177576793</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.60339782518525</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.50980358936095</v>
+        <v>28.27835599034771</v>
       </c>
       <c r="C22">
-        <v>20.63939784752355</v>
+        <v>16.76670565074979</v>
       </c>
       <c r="D22">
-        <v>8.582064280144618</v>
+        <v>8.73221949113249</v>
       </c>
       <c r="E22">
-        <v>22.08717358237983</v>
+        <v>6.405703248979261</v>
       </c>
       <c r="F22">
-        <v>85.01604628749547</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>84.4568452676866</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.13352062322086</v>
+        <v>7.076075676046393</v>
       </c>
       <c r="K22">
-        <v>25.98666596635501</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.621754489067573</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.95636467189562</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.82482473618305</v>
+        <v>27.67287544808881</v>
       </c>
       <c r="C23">
-        <v>20.14944975897443</v>
+        <v>16.38397446681652</v>
       </c>
       <c r="D23">
-        <v>8.436263622516151</v>
+        <v>8.569839595152867</v>
       </c>
       <c r="E23">
-        <v>21.56288509665726</v>
+        <v>6.37180285147502</v>
       </c>
       <c r="F23">
-        <v>83.21950807440757</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>83.06325035247559</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.68634346112743</v>
+        <v>7.059436155757076</v>
       </c>
       <c r="K23">
-        <v>25.3878139828022</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.627302676640262</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.76674295347996</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.20965833189725</v>
+        <v>25.46253244516098</v>
       </c>
       <c r="C24">
-        <v>18.28950261830078</v>
+        <v>14.91350445411487</v>
       </c>
       <c r="D24">
-        <v>7.893222676917556</v>
+        <v>7.949766868157977</v>
       </c>
       <c r="E24">
-        <v>19.57225762960867</v>
+        <v>6.247324869367143</v>
       </c>
       <c r="F24">
-        <v>76.40603213360929</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>77.77899317338475</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.98443030309824</v>
+        <v>6.99970497965303</v>
       </c>
       <c r="K24">
-        <v>23.10368742026017</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.65796080386955</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.07465573937401</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.3050164808545</v>
+        <v>23.24495574386205</v>
       </c>
       <c r="C25">
-        <v>16.24090321382194</v>
+        <v>13.26726953583202</v>
       </c>
       <c r="D25">
-        <v>7.317421515922944</v>
+        <v>7.265729436577869</v>
       </c>
       <c r="E25">
-        <v>17.37908270900021</v>
+        <v>6.118947165596506</v>
       </c>
       <c r="F25">
-        <v>68.94800342535436</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>72.03601685446466</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.10273749865874</v>
+        <v>6.940739115545169</v>
       </c>
       <c r="K25">
-        <v>20.5697823216879</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.709469290160929</v>
       </c>
       <c r="M25">
+        <v>13.3783099183695</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60110704626404</v>
+        <v>12.70104993970639</v>
       </c>
       <c r="C2">
-        <v>11.99079360833446</v>
+        <v>6.91629797797393</v>
       </c>
       <c r="D2">
-        <v>6.746036906718007</v>
+        <v>4.727533264230818</v>
       </c>
       <c r="E2">
-        <v>6.027518018987029</v>
+        <v>14.50410927589713</v>
       </c>
       <c r="F2">
-        <v>67.75288700026059</v>
+        <v>19.07222179912356</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.900746546140768</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.28058834331411</v>
       </c>
       <c r="L2">
-        <v>5.761461798232708</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.90496155775504</v>
+        <v>14.56341358541312</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.09387278253783</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.2923205424043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.4808815491596</v>
+        <v>11.87595232375573</v>
       </c>
       <c r="C3">
-        <v>11.08046446463312</v>
+        <v>6.63059849115417</v>
       </c>
       <c r="D3">
-        <v>6.383072554163065</v>
+        <v>4.588314564208459</v>
       </c>
       <c r="E3">
-        <v>5.966713911994603</v>
+        <v>13.63613708244769</v>
       </c>
       <c r="F3">
-        <v>64.81376591816583</v>
+        <v>18.64207369167717</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.875264438260323</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.6505066688858</v>
       </c>
       <c r="L3">
-        <v>5.80473635969098</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.60753986810542</v>
+        <v>13.62266861723147</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.30237025225929</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.18167722528513</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.79115018235616</v>
+        <v>11.34019406508202</v>
       </c>
       <c r="C4">
-        <v>10.49778289145645</v>
+        <v>6.448519228933158</v>
       </c>
       <c r="D4">
-        <v>6.154848854245454</v>
+        <v>4.500034881594504</v>
       </c>
       <c r="E4">
-        <v>5.929740666516458</v>
+        <v>13.08706077707084</v>
       </c>
       <c r="F4">
-        <v>62.99207093148102</v>
+        <v>18.39017060505952</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.860273906199528</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.24402259130102</v>
       </c>
       <c r="L4">
-        <v>5.835063646306502</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.4361748216368</v>
+        <v>13.01426473846024</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.43313956789836</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.12640761331318</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.50986410850446</v>
+        <v>11.11451648359344</v>
       </c>
       <c r="C5">
-        <v>10.25418180264393</v>
+        <v>6.372702789665771</v>
       </c>
       <c r="D5">
-        <v>6.060511498143704</v>
+        <v>4.463386739796977</v>
       </c>
       <c r="E5">
-        <v>5.914737082910458</v>
+        <v>12.85945504884026</v>
       </c>
       <c r="F5">
-        <v>62.24573075750506</v>
+        <v>18.29065315187702</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.854310862295603</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.07349771485412</v>
       </c>
       <c r="L5">
-        <v>5.848338921243846</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.36913855448756</v>
+        <v>12.75856727023576</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.48714465839271</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.10697811650461</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.46315307278627</v>
+        <v>11.07659830780348</v>
       </c>
       <c r="C6">
-        <v>10.2133553432873</v>
+        <v>6.360017662636679</v>
       </c>
       <c r="D6">
-        <v>6.044767039511527</v>
+        <v>4.457261610144685</v>
       </c>
       <c r="E6">
-        <v>5.912248829431803</v>
+        <v>12.82143562615111</v>
       </c>
       <c r="F6">
-        <v>62.1215724892003</v>
+        <v>18.27431940553882</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.853328979156414</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.04488934310652</v>
       </c>
       <c r="L6">
-        <v>5.850597866371245</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.35817518056097</v>
+        <v>12.7156391476667</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.49615605401502</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.10393590102029</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.78735712167737</v>
+        <v>11.33718029163973</v>
       </c>
       <c r="C7">
-        <v>10.49452274768024</v>
+        <v>6.447503210129178</v>
       </c>
       <c r="D7">
-        <v>6.153581957972955</v>
+        <v>4.499543316606945</v>
       </c>
       <c r="E7">
-        <v>5.929538100597032</v>
+        <v>13.08400649641353</v>
       </c>
       <c r="F7">
-        <v>62.98202115494802</v>
+        <v>18.3888157054896</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.860192920466505</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.24174250837929</v>
       </c>
       <c r="L7">
-        <v>5.835239004816979</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.43525946737366</v>
+        <v>13.01084779366448</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.43386497157988</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.12613318087588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.21538266571411</v>
+        <v>12.42258969287544</v>
       </c>
       <c r="C8">
-        <v>11.68172039865923</v>
+        <v>6.819201996068265</v>
       </c>
       <c r="D8">
-        <v>6.622002040772136</v>
+        <v>4.680128886521585</v>
       </c>
       <c r="E8">
-        <v>6.006460398076711</v>
+        <v>14.20828933994161</v>
       </c>
       <c r="F8">
-        <v>66.74315753167237</v>
+        <v>18.92141430874961</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.891812135108431</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.06743280114993</v>
       </c>
       <c r="L8">
-        <v>5.775585533929515</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.80005386745903</v>
+        <v>14.24541384199324</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.16520640151548</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.25148865579015</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.99353824989397</v>
+        <v>14.32114692443849</v>
       </c>
       <c r="C9">
-        <v>13.83104601284963</v>
+        <v>7.493235482188849</v>
       </c>
       <c r="D9">
-        <v>7.498488990657755</v>
+        <v>5.010859911902817</v>
       </c>
       <c r="E9">
-        <v>6.161594403624262</v>
+        <v>16.36765972458722</v>
       </c>
       <c r="F9">
-        <v>73.97828352632041</v>
+        <v>20.05951179213639</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.959993713772997</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.52950215133279</v>
       </c>
       <c r="L9">
-        <v>5.689825061878659</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.60656106619584</v>
+        <v>16.42392675298518</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.65905741440377</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.60159556617702</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.01890108804483</v>
+        <v>15.57802040284791</v>
       </c>
       <c r="C10">
-        <v>15.31666859898362</v>
+        <v>7.95286778376296</v>
       </c>
       <c r="D10">
-        <v>8.119078431236334</v>
+        <v>5.238187357899199</v>
       </c>
       <c r="E10">
-        <v>6.280538889465204</v>
+        <v>17.97457650820074</v>
       </c>
       <c r="F10">
-        <v>79.21541202019101</v>
+        <v>20.94828326154824</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.015418417884739</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.5068381220534</v>
       </c>
       <c r="L10">
-        <v>5.648092680873506</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.25832104307185</v>
+        <v>17.87979228646765</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.29811826086791</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.9271346462245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.02911734670879</v>
+        <v>16.12038695669968</v>
       </c>
       <c r="C11">
-        <v>15.97641014241305</v>
+        <v>8.153940171191818</v>
       </c>
       <c r="D11">
-        <v>8.397321110341819</v>
+        <v>5.337960510915631</v>
       </c>
       <c r="E11">
-        <v>6.336382804566636</v>
+        <v>18.67559178558871</v>
       </c>
       <c r="F11">
-        <v>81.58679072187499</v>
+        <v>21.36309001242586</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.042213034817999</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.93041544809932</v>
       </c>
       <c r="L11">
-        <v>5.63432168241787</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.56894589988972</v>
+        <v>18.51152213322842</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.1358939850522</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.09095447210053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.42060698224966</v>
+        <v>16.32158880060239</v>
       </c>
       <c r="C12">
-        <v>16.22434776269758</v>
+        <v>8.228911531244441</v>
       </c>
       <c r="D12">
-        <v>8.502219072866302</v>
+        <v>5.375201471195766</v>
       </c>
       <c r="E12">
-        <v>6.357846573475956</v>
+        <v>18.93685013788524</v>
       </c>
       <c r="F12">
-        <v>82.48400829996099</v>
+        <v>21.52160316118397</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.052629574073796</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.08780021183885</v>
       </c>
       <c r="L12">
-        <v>5.629915632609282</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.68875546241548</v>
+        <v>18.74642571182995</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.07471229389069</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.15531548541109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.33637752820186</v>
+        <v>16.27844155131433</v>
       </c>
       <c r="C13">
-        <v>16.17102663623875</v>
+        <v>8.212817378596212</v>
       </c>
       <c r="D13">
-        <v>8.479645925505327</v>
+        <v>5.367205281079107</v>
       </c>
       <c r="E13">
-        <v>6.353208658010173</v>
+        <v>18.88076844256859</v>
       </c>
       <c r="F13">
-        <v>82.29079463144215</v>
+        <v>21.48740180836533</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.050373418827251</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.0540384720714</v>
       </c>
       <c r="L13">
-        <v>5.63082754522782</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.66285234462254</v>
+        <v>18.69602584136414</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.08787835068529</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.14134976907446</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.06136447333573</v>
+        <v>16.13702346450577</v>
       </c>
       <c r="C14">
-        <v>15.99684337498346</v>
+        <v>8.160131646341915</v>
       </c>
       <c r="D14">
-        <v>8.405959681929598</v>
+        <v>5.341035282084204</v>
       </c>
       <c r="E14">
-        <v>6.338141857956622</v>
+        <v>18.69716919005841</v>
       </c>
       <c r="F14">
-        <v>81.6606151078073</v>
+        <v>21.3761026284058</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.043064327994762</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.94342393867643</v>
       </c>
       <c r="L14">
-        <v>5.633942614489362</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.57875792944587</v>
+        <v>18.5309338954609</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.13085574020686</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.09620252448598</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.89265322689233</v>
+        <v>16.04985778293136</v>
       </c>
       <c r="C15">
-        <v>15.88991838300563</v>
+        <v>8.127707273168868</v>
       </c>
       <c r="D15">
-        <v>8.360768053867366</v>
+        <v>5.324934466520667</v>
       </c>
       <c r="E15">
-        <v>6.328956498451135</v>
+        <v>18.58416571925131</v>
       </c>
       <c r="F15">
-        <v>81.2745405859535</v>
+        <v>21.30811343864459</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.038623851059975</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.8752770796088</v>
       </c>
       <c r="L15">
-        <v>5.63595791499131</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.52753718780779</v>
+        <v>18.42925020679338</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.15721202934261</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.0688532685389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95878496846223</v>
+        <v>15.54198788597471</v>
       </c>
       <c r="C16">
-        <v>15.27326369172028</v>
+        <v>7.939564273796288</v>
       </c>
       <c r="D16">
-        <v>8.100822158948553</v>
+        <v>5.231592156701846</v>
       </c>
       <c r="E16">
-        <v>6.27692974725253</v>
+        <v>17.92816940709382</v>
       </c>
       <c r="F16">
-        <v>79.06027795386879</v>
+        <v>20.92137935574365</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.013702627193743</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.47873389212223</v>
       </c>
       <c r="L16">
-        <v>5.649102397640219</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.23831719370186</v>
+        <v>17.83789868659429</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.30875675945673</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.91675074859116</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43178505936529</v>
+        <v>15.22292986920165</v>
       </c>
       <c r="C17">
-        <v>14.89112522513956</v>
+        <v>7.822076947057323</v>
       </c>
       <c r="D17">
-        <v>7.940386308893902</v>
+        <v>5.173384298136035</v>
       </c>
       <c r="E17">
-        <v>6.245501526839633</v>
+        <v>17.51813331534846</v>
       </c>
       <c r="F17">
-        <v>77.69956539185371</v>
+        <v>20.68676402542983</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.998847422705015</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.23008732305188</v>
       </c>
       <c r="L17">
-        <v>5.6585406225664</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.06460316164616</v>
+        <v>17.46734951262735</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.40220528466201</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.82751676941685</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12848998400453</v>
+        <v>15.03664671555983</v>
       </c>
       <c r="C18">
-        <v>14.66978725147479</v>
+        <v>7.753747435258671</v>
       </c>
       <c r="D18">
-        <v>7.847716173501065</v>
+        <v>5.139563041346264</v>
       </c>
       <c r="E18">
-        <v>6.227583491631811</v>
+        <v>17.27946233915105</v>
       </c>
       <c r="F18">
-        <v>76.91581743445903</v>
+        <v>20.55281191165526</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.990449039940466</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.08509314941799</v>
       </c>
       <c r="L18">
-        <v>5.664455916989544</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.96600658632282</v>
+        <v>17.25133894834892</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.45614187295457</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.77766887710767</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.02576178704034</v>
+        <v>14.97309744655088</v>
       </c>
       <c r="C19">
-        <v>14.59456952932522</v>
+        <v>7.730483386501308</v>
       </c>
       <c r="D19">
-        <v>7.816269305667093</v>
+        <v>5.1280536434281</v>
       </c>
       <c r="E19">
-        <v>6.221542151731946</v>
+        <v>17.1981633813044</v>
       </c>
       <c r="F19">
-        <v>76.65024449624312</v>
+        <v>20.50763089133581</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.987629375564857</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.03566056958639</v>
       </c>
       <c r="L19">
-        <v>5.666540665113282</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.93284621473511</v>
+        <v>17.17770461128801</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.47443707326786</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.76104290887085</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.48790183466532</v>
+        <v>15.25718044251393</v>
       </c>
       <c r="C20">
-        <v>14.93196130032876</v>
+        <v>7.834661846625454</v>
       </c>
       <c r="D20">
-        <v>7.957504762652019</v>
+        <v>5.179616117060306</v>
       </c>
       <c r="E20">
-        <v>6.248830248023093</v>
+        <v>17.56207439232494</v>
       </c>
       <c r="F20">
-        <v>77.84452467012962</v>
+        <v>20.71163708579809</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.000413395275645</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.25676098783095</v>
       </c>
       <c r="L20">
-        <v>5.657485138864256</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.08295785243721</v>
+        <v>17.50709270798299</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.39223836666857</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.83686252302524</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.14219522648127</v>
+        <v>16.17867446299893</v>
       </c>
       <c r="C21">
-        <v>16.04805286302263</v>
+        <v>8.17563859813667</v>
       </c>
       <c r="D21">
-        <v>8.427614670246278</v>
+        <v>5.348736856448093</v>
       </c>
       <c r="E21">
-        <v>6.34255813966239</v>
+        <v>18.75120982027641</v>
       </c>
       <c r="F21">
-        <v>81.84572710477462</v>
+        <v>21.40875551102102</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.045203480877121</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.975995832151</v>
       </c>
       <c r="L21">
-        <v>5.633005177576793</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.60339782518525</v>
+        <v>18.5795419841978</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.11822575977251</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.10939975015775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.27835599034771</v>
+        <v>16.75657995889707</v>
       </c>
       <c r="C22">
-        <v>16.76670565074979</v>
+        <v>8.391660600822092</v>
       </c>
       <c r="D22">
-        <v>8.73221949113249</v>
+        <v>5.456107222266807</v>
       </c>
       <c r="E22">
-        <v>6.405703248979261</v>
+        <v>19.50395145189169</v>
       </c>
       <c r="F22">
-        <v>84.4568452676866</v>
+        <v>21.87269771851232</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.076075676046393</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.42849348659949</v>
       </c>
       <c r="L22">
-        <v>5.621754489067573</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.95636467189562</v>
+        <v>19.25531599191262</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.94057737430692</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.30110300168315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.67287544808881</v>
+        <v>16.45035240077618</v>
       </c>
       <c r="C23">
-        <v>16.38397446681652</v>
+        <v>8.276994484645417</v>
       </c>
       <c r="D23">
-        <v>8.569839595152867</v>
+        <v>5.399096021068704</v>
       </c>
       <c r="E23">
-        <v>6.37180285147502</v>
+        <v>19.10439488444205</v>
       </c>
       <c r="F23">
-        <v>83.06325035247559</v>
+        <v>21.62434287446507</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.059436155757076</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.1885897126752</v>
       </c>
       <c r="L23">
-        <v>5.627302676640262</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.76674295347996</v>
+        <v>18.89691594692088</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.03527219513543</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.19752437504286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.46253244516098</v>
+        <v>15.24170464649599</v>
       </c>
       <c r="C24">
-        <v>14.91350445411487</v>
+        <v>7.828974655616435</v>
       </c>
       <c r="D24">
-        <v>7.949766868157977</v>
+        <v>5.176799821662463</v>
       </c>
       <c r="E24">
-        <v>6.247324869367143</v>
+        <v>17.54221778387001</v>
       </c>
       <c r="F24">
-        <v>77.77899317338475</v>
+        <v>20.70038906839322</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.99970497965303</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.24470819091658</v>
       </c>
       <c r="L24">
-        <v>5.65796080386955</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.07465573937401</v>
+        <v>17.48913408730565</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.39674374808268</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.8326327841029</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24495574386205</v>
+        <v>13.8319431280136</v>
       </c>
       <c r="C25">
-        <v>13.26726953583202</v>
+        <v>7.31701489567937</v>
       </c>
       <c r="D25">
-        <v>7.265729436577869</v>
+        <v>4.924047641747197</v>
       </c>
       <c r="E25">
-        <v>6.118947165596506</v>
+        <v>15.74864460386119</v>
       </c>
       <c r="F25">
-        <v>72.03601685446466</v>
+        <v>19.74205572939364</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.940739115545169</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.1509465409327</v>
       </c>
       <c r="L25">
-        <v>5.709469290160929</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.3783099183695</v>
+        <v>15.86024721234656</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.79393731420818</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.49520434793645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70104993970639</v>
+        <v>9.072075465861674</v>
       </c>
       <c r="C2">
-        <v>6.91629797797393</v>
+        <v>5.459457105089276</v>
       </c>
       <c r="D2">
-        <v>4.727533264230818</v>
+        <v>5.030686024327976</v>
       </c>
       <c r="E2">
-        <v>14.50410927589713</v>
+        <v>12.60419834982525</v>
       </c>
       <c r="F2">
-        <v>19.07222179912356</v>
+        <v>24.92074885364288</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.28058834331411</v>
+        <v>8.318395326212755</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.56341358541312</v>
+        <v>13.55570814820478</v>
       </c>
       <c r="N2">
-        <v>12.09387278253783</v>
+        <v>18.73536573970178</v>
       </c>
       <c r="O2">
-        <v>15.2923205424043</v>
+        <v>22.30085422391772</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.87595232375573</v>
+        <v>8.793952934428134</v>
       </c>
       <c r="C3">
-        <v>6.63059849115417</v>
+        <v>5.337939148169292</v>
       </c>
       <c r="D3">
-        <v>4.588314564208459</v>
+        <v>4.980291331590565</v>
       </c>
       <c r="E3">
-        <v>13.63613708244769</v>
+        <v>12.38848904863247</v>
       </c>
       <c r="F3">
-        <v>18.64207369167717</v>
+        <v>24.92046979955428</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.6505066688858</v>
+        <v>8.131818729482911</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.62266861723147</v>
+        <v>13.38679700773061</v>
       </c>
       <c r="N3">
-        <v>12.30237025225929</v>
+        <v>18.79653686691419</v>
       </c>
       <c r="O3">
-        <v>15.18167722528513</v>
+        <v>22.34993385733485</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.34019406508202</v>
+        <v>8.620428974443067</v>
       </c>
       <c r="C4">
-        <v>6.448519228933158</v>
+        <v>5.261101922172317</v>
       </c>
       <c r="D4">
-        <v>4.500034881594504</v>
+        <v>4.948568849471407</v>
       </c>
       <c r="E4">
-        <v>13.08706077707084</v>
+        <v>12.25847303576049</v>
       </c>
       <c r="F4">
-        <v>18.39017060505952</v>
+        <v>24.9268184077711</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.24402259130102</v>
+        <v>8.016568215339728</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.01426473846024</v>
+        <v>13.28538495281219</v>
       </c>
       <c r="N4">
-        <v>12.43313956789836</v>
+        <v>18.8358296404732</v>
       </c>
       <c r="O4">
-        <v>15.12640761331318</v>
+        <v>22.3848849196188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.11451648359344</v>
+        <v>8.549139841634704</v>
       </c>
       <c r="C5">
-        <v>6.372702789665771</v>
+        <v>5.229256138852947</v>
       </c>
       <c r="D5">
-        <v>4.463386739796977</v>
+        <v>4.935451079583808</v>
       </c>
       <c r="E5">
-        <v>12.85945504884026</v>
+        <v>12.20617840493602</v>
       </c>
       <c r="F5">
-        <v>18.29065315187702</v>
+        <v>24.9310449206821</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.07349771485412</v>
+        <v>7.969497817851945</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.75856727023576</v>
+        <v>13.24468607267562</v>
       </c>
       <c r="N5">
-        <v>12.48714465839271</v>
+        <v>18.85227894661525</v>
       </c>
       <c r="O5">
-        <v>15.10697811650461</v>
+        <v>22.40033627026939</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.07659830780348</v>
+        <v>8.537271056031519</v>
       </c>
       <c r="C6">
-        <v>6.360017662636679</v>
+        <v>5.223936691972641</v>
       </c>
       <c r="D6">
-        <v>4.457261610144685</v>
+        <v>4.933261535356757</v>
       </c>
       <c r="E6">
-        <v>12.82143562615111</v>
+        <v>12.19753869556982</v>
       </c>
       <c r="F6">
-        <v>18.27431940553882</v>
+        <v>24.93184572232482</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.04488934310652</v>
+        <v>7.961677542968665</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.7156391476667</v>
+        <v>13.23796735225356</v>
       </c>
       <c r="N6">
-        <v>12.49615605401502</v>
+        <v>18.85503678404605</v>
       </c>
       <c r="O6">
-        <v>15.10393590102029</v>
+        <v>22.40297486840617</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.33718029163973</v>
+        <v>8.619469719911013</v>
       </c>
       <c r="C7">
-        <v>6.447503210129178</v>
+        <v>5.260674566190845</v>
       </c>
       <c r="D7">
-        <v>4.499543316606945</v>
+        <v>4.948392703018856</v>
       </c>
       <c r="E7">
-        <v>13.08400649641353</v>
+        <v>12.25776488587947</v>
       </c>
       <c r="F7">
-        <v>18.3888157054896</v>
+        <v>24.92686877105338</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.24174250837929</v>
+        <v>8.015933739199028</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.01084779366448</v>
+        <v>13.28483346955447</v>
       </c>
       <c r="N7">
-        <v>12.43386497157988</v>
+        <v>18.83604970973238</v>
       </c>
       <c r="O7">
-        <v>15.12613318087588</v>
+        <v>22.38508841223688</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.42258969287544</v>
+        <v>8.976817951665012</v>
       </c>
       <c r="C8">
-        <v>6.819201996068265</v>
+        <v>5.418034233350926</v>
       </c>
       <c r="D8">
-        <v>4.680128886521585</v>
+        <v>5.013475085774296</v>
       </c>
       <c r="E8">
-        <v>14.20828933994161</v>
+        <v>12.52936370980555</v>
       </c>
       <c r="F8">
-        <v>18.92141430874961</v>
+        <v>24.91929967815922</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.06743280114993</v>
+        <v>8.25424797069582</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.24541384199324</v>
+        <v>13.49701995160024</v>
       </c>
       <c r="N8">
-        <v>12.16520640151548</v>
+        <v>18.75609854685852</v>
       </c>
       <c r="O8">
-        <v>15.25148865579015</v>
+        <v>22.31677588811809</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.32114692443849</v>
+        <v>9.651025540820914</v>
       </c>
       <c r="C9">
-        <v>7.493235482188849</v>
+        <v>5.707926457291661</v>
       </c>
       <c r="D9">
-        <v>5.010859911902817</v>
+        <v>5.134677680861452</v>
       </c>
       <c r="E9">
-        <v>16.36765972458722</v>
+        <v>13.07784817311715</v>
       </c>
       <c r="F9">
-        <v>20.05951179213639</v>
+        <v>24.95614923766875</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.52950215133279</v>
+        <v>8.713189693693664</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.42392675298518</v>
+        <v>13.9291645895561</v>
       </c>
       <c r="N9">
-        <v>11.65905741440377</v>
+        <v>18.61300869739638</v>
       </c>
       <c r="O9">
-        <v>15.60159556617702</v>
+        <v>22.22113129400507</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57802040284791</v>
+        <v>10.12450650574267</v>
       </c>
       <c r="C10">
-        <v>7.95286778376296</v>
+        <v>5.908240153230782</v>
       </c>
       <c r="D10">
-        <v>5.238187357899199</v>
+        <v>5.21950481194796</v>
       </c>
       <c r="E10">
-        <v>17.97457650820074</v>
+        <v>13.48596245894419</v>
       </c>
       <c r="F10">
-        <v>20.94828326154824</v>
+        <v>25.01461590410904</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.5068381220534</v>
+        <v>9.041585856328867</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.87979228646765</v>
+        <v>14.25345350989054</v>
       </c>
       <c r="N10">
-        <v>11.29811826086791</v>
+        <v>18.51614322706785</v>
       </c>
       <c r="O10">
-        <v>15.9271346462245</v>
+        <v>22.17434832336486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.12038695669968</v>
+        <v>10.33413131093119</v>
       </c>
       <c r="C11">
-        <v>8.153940171191818</v>
+        <v>5.996378294839326</v>
       </c>
       <c r="D11">
-        <v>5.337960510915631</v>
+        <v>5.25711664657133</v>
       </c>
       <c r="E11">
-        <v>18.67559178558871</v>
+        <v>13.67180371275995</v>
       </c>
       <c r="F11">
-        <v>21.36309001242586</v>
+        <v>25.04798163833399</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.93041544809932</v>
+        <v>9.1883655165755</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.51152213322842</v>
+        <v>14.40181944346939</v>
       </c>
       <c r="N11">
-        <v>11.1358939850522</v>
+        <v>18.4738524648921</v>
       </c>
       <c r="O11">
-        <v>16.09095447210053</v>
+        <v>22.15818765175485</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.32158880060239</v>
+        <v>10.41260754905401</v>
       </c>
       <c r="C12">
-        <v>8.228911531244441</v>
+        <v>6.029306675219178</v>
       </c>
       <c r="D12">
-        <v>5.375201471195766</v>
+        <v>5.271213807230005</v>
       </c>
       <c r="E12">
-        <v>18.93685013788524</v>
+        <v>13.74212883153397</v>
       </c>
       <c r="F12">
-        <v>21.52160316118397</v>
+        <v>25.0615836463944</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.08780021183885</v>
+        <v>9.243518024647152</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.74642571182995</v>
+        <v>14.45807078135602</v>
       </c>
       <c r="N12">
-        <v>11.07471229389069</v>
+        <v>18.45809177892035</v>
       </c>
       <c r="O12">
-        <v>16.15531548541109</v>
+        <v>22.1528057358506</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.27844155131433</v>
+        <v>10.39574761277598</v>
       </c>
       <c r="C13">
-        <v>8.212817378596212</v>
+        <v>6.022235142787358</v>
       </c>
       <c r="D13">
-        <v>5.367205281079107</v>
+        <v>5.268184289387937</v>
       </c>
       <c r="E13">
-        <v>18.88076844256859</v>
+        <v>13.72698641358883</v>
       </c>
       <c r="F13">
-        <v>21.48740180836533</v>
+        <v>25.05861130896146</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.0540384720714</v>
+        <v>9.231659885792523</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.69602584136414</v>
+        <v>14.44595384402784</v>
       </c>
       <c r="N13">
-        <v>11.08787835068529</v>
+        <v>18.46147485047704</v>
       </c>
       <c r="O13">
-        <v>16.14134976907446</v>
+        <v>22.15393199634905</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.13702346450577</v>
+        <v>10.34060612129979</v>
       </c>
       <c r="C14">
-        <v>8.160131646341915</v>
+        <v>5.999096402968407</v>
       </c>
       <c r="D14">
-        <v>5.341035282084204</v>
+        <v>5.258279376270731</v>
       </c>
       <c r="E14">
-        <v>18.69716919005841</v>
+        <v>13.67759080802442</v>
       </c>
       <c r="F14">
-        <v>21.3761026284058</v>
+        <v>25.04908134088673</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.94342393867643</v>
+        <v>9.19291185817038</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.5309338954609</v>
+        <v>14.40644620549683</v>
       </c>
       <c r="N14">
-        <v>11.13085574020686</v>
+        <v>18.47255074172415</v>
       </c>
       <c r="O14">
-        <v>16.09620252448598</v>
+        <v>22.15773008537411</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.04985778293136</v>
+        <v>10.30671052323036</v>
       </c>
       <c r="C15">
-        <v>8.127707273168868</v>
+        <v>5.984864445866256</v>
       </c>
       <c r="D15">
-        <v>5.324934466520667</v>
+        <v>5.252193214453197</v>
       </c>
       <c r="E15">
-        <v>18.58416571925131</v>
+        <v>13.64732599594876</v>
       </c>
       <c r="F15">
-        <v>21.30811343864459</v>
+        <v>25.04336970398225</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.8752770796088</v>
+        <v>9.169120052767193</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.42925020679338</v>
+        <v>14.3822539798039</v>
       </c>
       <c r="N15">
-        <v>11.15721202934261</v>
+        <v>18.47936807678274</v>
       </c>
       <c r="O15">
-        <v>16.0688532685389</v>
+        <v>22.16015264049479</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.54198788597471</v>
+        <v>10.11068442850404</v>
       </c>
       <c r="C16">
-        <v>7.939564273796288</v>
+        <v>5.902418442252207</v>
       </c>
       <c r="D16">
-        <v>5.231592156701846</v>
+        <v>5.217026692101729</v>
       </c>
       <c r="E16">
-        <v>17.92816940709382</v>
+        <v>13.47381452064807</v>
       </c>
       <c r="F16">
-        <v>20.92137935574365</v>
+        <v>25.01257107683998</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.47873389212223</v>
+        <v>9.031936201488847</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.83789868659429</v>
+        <v>14.2437698896828</v>
       </c>
       <c r="N16">
-        <v>11.30875675945673</v>
+        <v>18.51894262182152</v>
       </c>
       <c r="O16">
-        <v>15.91675074859116</v>
+        <v>22.17550763552608</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.22292986920165</v>
+        <v>9.988896360876407</v>
       </c>
       <c r="C17">
-        <v>7.822076947057323</v>
+        <v>5.851062311722158</v>
       </c>
       <c r="D17">
-        <v>5.173384298136035</v>
+        <v>5.19519931679616</v>
       </c>
       <c r="E17">
-        <v>17.51813331534846</v>
+        <v>13.36736407085973</v>
       </c>
       <c r="F17">
-        <v>20.68676402542983</v>
+        <v>24.99540673929832</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.23008732305188</v>
+        <v>8.947069981301093</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.46734951262735</v>
+        <v>14.15899276365411</v>
       </c>
       <c r="N17">
-        <v>11.40220528466201</v>
+        <v>18.54367380973258</v>
       </c>
       <c r="O17">
-        <v>15.82751676941685</v>
+        <v>22.18624014414004</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.03664671555983</v>
+        <v>9.918308523074717</v>
       </c>
       <c r="C18">
-        <v>7.753747435258671</v>
+        <v>5.821243604732414</v>
       </c>
       <c r="D18">
-        <v>5.139563041346264</v>
+        <v>5.182553181078505</v>
       </c>
       <c r="E18">
-        <v>17.27946233915105</v>
+        <v>13.3061586651367</v>
       </c>
       <c r="F18">
-        <v>20.55281191165526</v>
+        <v>24.98617183988176</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.08509314941799</v>
+        <v>8.898014581437454</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.25133894834892</v>
+        <v>14.11031389705279</v>
       </c>
       <c r="N18">
-        <v>11.45614187295457</v>
+        <v>18.55806556482421</v>
       </c>
       <c r="O18">
-        <v>15.77766887710767</v>
+        <v>22.19289516244565</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.97309744655088</v>
+        <v>9.894318619669617</v>
       </c>
       <c r="C19">
-        <v>7.730483386501308</v>
+        <v>5.811099991834833</v>
       </c>
       <c r="D19">
-        <v>5.1280536434281</v>
+        <v>5.17825584475158</v>
       </c>
       <c r="E19">
-        <v>17.1981633813044</v>
+        <v>13.28544171903561</v>
       </c>
       <c r="F19">
-        <v>20.50763089133581</v>
+        <v>24.98315473653639</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.03566056958639</v>
+        <v>8.881365325745367</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.17770461128801</v>
+        <v>14.09384790722105</v>
       </c>
       <c r="N19">
-        <v>11.47443707326786</v>
+        <v>18.56296708908597</v>
       </c>
       <c r="O19">
-        <v>15.76104290887085</v>
+        <v>22.19523116825374</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.25718044251393</v>
+        <v>10.00191721818545</v>
       </c>
       <c r="C20">
-        <v>7.834661846625454</v>
+        <v>5.856558377772289</v>
       </c>
       <c r="D20">
-        <v>5.179616117060306</v>
+        <v>5.197532397380261</v>
       </c>
       <c r="E20">
-        <v>17.56207439232494</v>
+        <v>13.37869417740274</v>
       </c>
       <c r="F20">
-        <v>20.71163708579809</v>
+        <v>24.99716796734034</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.25676098783095</v>
+        <v>8.956129650392917</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.50709270798299</v>
+        <v>14.16800926310417</v>
       </c>
       <c r="N20">
-        <v>11.39223836666857</v>
+        <v>18.54102385405698</v>
       </c>
       <c r="O20">
-        <v>15.83686252302524</v>
+        <v>22.18504775798571</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.17867446299893</v>
+        <v>10.35682761232681</v>
       </c>
       <c r="C21">
-        <v>8.17563859813667</v>
+        <v>6.005905098423481</v>
       </c>
       <c r="D21">
-        <v>5.348736856448093</v>
+        <v>5.261192682288145</v>
       </c>
       <c r="E21">
-        <v>18.75120982027641</v>
+        <v>13.69210141368791</v>
       </c>
       <c r="F21">
-        <v>21.40875551102102</v>
+        <v>25.0518543314005</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.975995832151</v>
+        <v>9.204305172023512</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.5795419841978</v>
+        <v>14.41804911964129</v>
       </c>
       <c r="N21">
-        <v>11.11822575977251</v>
+        <v>18.46929060223746</v>
       </c>
       <c r="O21">
-        <v>16.10939975015775</v>
+        <v>22.15659446208823</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75657995889707</v>
+        <v>10.58348270643639</v>
       </c>
       <c r="C22">
-        <v>8.391660600822092</v>
+        <v>6.10089529963492</v>
       </c>
       <c r="D22">
-        <v>5.456107222266807</v>
+        <v>5.301947245523525</v>
       </c>
       <c r="E22">
-        <v>19.50395145189169</v>
+        <v>13.89661285547333</v>
       </c>
       <c r="F22">
-        <v>21.87269771851232</v>
+        <v>25.09322848717161</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.42849348659949</v>
+        <v>9.363974696490027</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.25531599191262</v>
+        <v>14.58183928465981</v>
       </c>
       <c r="N22">
-        <v>10.94057737430692</v>
+        <v>18.423888210822</v>
       </c>
       <c r="O22">
-        <v>16.30110300168315</v>
+        <v>22.1422993447554</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.45035240077618</v>
+        <v>10.46302035129782</v>
       </c>
       <c r="C23">
-        <v>8.276994484645417</v>
+        <v>6.050442311631133</v>
       </c>
       <c r="D23">
-        <v>5.399096021068704</v>
+        <v>5.280275324058191</v>
       </c>
       <c r="E23">
-        <v>19.10439488444205</v>
+        <v>13.78751470104574</v>
       </c>
       <c r="F23">
-        <v>21.62434287446507</v>
+        <v>25.07063322034979</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.1885897126752</v>
+        <v>9.279004340172341</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.89691594692088</v>
+        <v>14.49440440430087</v>
       </c>
       <c r="N23">
-        <v>11.03527219513543</v>
+        <v>18.44798533578674</v>
       </c>
       <c r="O23">
-        <v>16.19752437504286</v>
+        <v>22.14953502809092</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.24170464649599</v>
+        <v>9.996032259007585</v>
       </c>
       <c r="C24">
-        <v>7.828974655616435</v>
+        <v>5.854074518758075</v>
       </c>
       <c r="D24">
-        <v>5.176799821662463</v>
+        <v>5.196477914273091</v>
       </c>
       <c r="E24">
-        <v>17.54221778387001</v>
+        <v>13.37357184794311</v>
       </c>
       <c r="F24">
-        <v>20.70038906839322</v>
+        <v>24.99636974358033</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.24470819091658</v>
+        <v>8.952034594218294</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.48913408730565</v>
+        <v>14.16393271076893</v>
       </c>
       <c r="N24">
-        <v>11.39674374808268</v>
+        <v>18.54222135857185</v>
       </c>
       <c r="O24">
-        <v>15.8326327841029</v>
+        <v>22.18558532586302</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.8319431280136</v>
+        <v>9.472096331963352</v>
       </c>
       <c r="C25">
-        <v>7.31701489567937</v>
+        <v>5.631641703196965</v>
       </c>
       <c r="D25">
-        <v>4.924047641747197</v>
+        <v>5.102608798973709</v>
       </c>
       <c r="E25">
-        <v>15.74864460386119</v>
+        <v>12.92824092270033</v>
       </c>
       <c r="F25">
-        <v>19.74205572939364</v>
+        <v>24.94065427313298</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.1509465409327</v>
+        <v>8.590324488098108</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.86024721234656</v>
+        <v>13.81084798179818</v>
       </c>
       <c r="N25">
-        <v>11.79393731420818</v>
+        <v>18.6502611353412</v>
       </c>
       <c r="O25">
-        <v>15.49520434793645</v>
+        <v>22.24288933889773</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.072075465861674</v>
+        <v>12.70104993970639</v>
       </c>
       <c r="C2">
-        <v>5.459457105089276</v>
+        <v>6.91629797797393</v>
       </c>
       <c r="D2">
-        <v>5.030686024327976</v>
+        <v>4.727533264230923</v>
       </c>
       <c r="E2">
-        <v>12.60419834982525</v>
+        <v>14.50410927589714</v>
       </c>
       <c r="F2">
-        <v>24.92074885364288</v>
+        <v>19.07222179912355</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.318395326212755</v>
+        <v>11.28058834331412</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.55570814820478</v>
+        <v>14.56341358541312</v>
       </c>
       <c r="N2">
-        <v>18.73536573970178</v>
+        <v>12.09387278253784</v>
       </c>
       <c r="O2">
-        <v>22.30085422391772</v>
+        <v>15.29232054240431</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.793952934428134</v>
+        <v>11.87595232375574</v>
       </c>
       <c r="C3">
-        <v>5.337939148169292</v>
+        <v>6.63059849115417</v>
       </c>
       <c r="D3">
-        <v>4.980291331590565</v>
+        <v>4.588314564208522</v>
       </c>
       <c r="E3">
-        <v>12.38848904863247</v>
+        <v>13.63613708244769</v>
       </c>
       <c r="F3">
-        <v>24.92046979955428</v>
+        <v>18.64207369167723</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.131818729482911</v>
+        <v>10.65050666888582</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.38679700773061</v>
+        <v>13.62266861723145</v>
       </c>
       <c r="N3">
-        <v>18.79653686691419</v>
+        <v>12.30237025225939</v>
       </c>
       <c r="O3">
-        <v>22.34993385733485</v>
+        <v>15.18167722528524</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.620428974443067</v>
+        <v>11.34019406508206</v>
       </c>
       <c r="C4">
-        <v>5.261101922172317</v>
+        <v>6.448519228933256</v>
       </c>
       <c r="D4">
-        <v>4.948568849471407</v>
+        <v>4.500034881594405</v>
       </c>
       <c r="E4">
-        <v>12.25847303576049</v>
+        <v>13.08706077707086</v>
       </c>
       <c r="F4">
-        <v>24.9268184077711</v>
+        <v>18.39017060505942</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.016568215339728</v>
+        <v>10.24402259130108</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.28538495281219</v>
+        <v>13.01426473846026</v>
       </c>
       <c r="N4">
-        <v>18.8358296404732</v>
+        <v>12.43313956789833</v>
       </c>
       <c r="O4">
-        <v>22.3848849196188</v>
+        <v>15.12640761331304</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.549139841634704</v>
+        <v>11.11451648359342</v>
       </c>
       <c r="C5">
-        <v>5.229256138852947</v>
+        <v>6.372702789665881</v>
       </c>
       <c r="D5">
-        <v>4.935451079583808</v>
+        <v>4.463386739797212</v>
       </c>
       <c r="E5">
-        <v>12.20617840493602</v>
+        <v>12.85945504884025</v>
       </c>
       <c r="F5">
-        <v>24.9310449206821</v>
+        <v>18.29065315187703</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.969497817851945</v>
+        <v>10.07349771485405</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.24468607267562</v>
+        <v>12.75856727023576</v>
       </c>
       <c r="N5">
-        <v>18.85227894661525</v>
+        <v>12.48714465839274</v>
       </c>
       <c r="O5">
-        <v>22.40033627026939</v>
+        <v>15.10697811650469</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.537271056031519</v>
+        <v>11.07659830780357</v>
       </c>
       <c r="C6">
-        <v>5.223936691972641</v>
+        <v>6.360017662636768</v>
       </c>
       <c r="D6">
-        <v>4.933261535356757</v>
+        <v>4.457261610144739</v>
       </c>
       <c r="E6">
-        <v>12.19753869556982</v>
+        <v>12.82143562615113</v>
       </c>
       <c r="F6">
-        <v>24.93184572232482</v>
+        <v>18.2743194055387</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.961677542968665</v>
+        <v>10.04488934310661</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.23796735225356</v>
+        <v>12.71563914766675</v>
       </c>
       <c r="N6">
-        <v>18.85503678404605</v>
+        <v>12.49615605401502</v>
       </c>
       <c r="O6">
-        <v>22.40297486840617</v>
+        <v>15.10393590102022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.619469719911013</v>
+        <v>11.33718029163971</v>
       </c>
       <c r="C7">
-        <v>5.260674566190845</v>
+        <v>6.447503210129178</v>
       </c>
       <c r="D7">
-        <v>4.948392703018856</v>
+        <v>4.499543316606885</v>
       </c>
       <c r="E7">
-        <v>12.25776488587947</v>
+        <v>13.08400649641352</v>
       </c>
       <c r="F7">
-        <v>24.92686877105338</v>
+        <v>18.38881570548952</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.015933739199028</v>
+        <v>10.24174250837929</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.28483346955447</v>
+        <v>13.01084779366451</v>
       </c>
       <c r="N7">
-        <v>18.83604970973238</v>
+        <v>12.43386497157982</v>
       </c>
       <c r="O7">
-        <v>22.38508841223688</v>
+        <v>15.12613318087582</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.976817951665012</v>
+        <v>12.4225896928755</v>
       </c>
       <c r="C8">
-        <v>5.418034233350926</v>
+        <v>6.819201996068265</v>
       </c>
       <c r="D8">
-        <v>5.013475085774296</v>
+        <v>4.680128886521582</v>
       </c>
       <c r="E8">
-        <v>12.52936370980555</v>
+        <v>14.2082893399416</v>
       </c>
       <c r="F8">
-        <v>24.91929967815922</v>
+        <v>18.92141430874944</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.25424797069582</v>
+        <v>11.06743280114993</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.49701995160024</v>
+        <v>14.24541384199335</v>
       </c>
       <c r="N8">
-        <v>18.75609854685852</v>
+        <v>12.16520640151542</v>
       </c>
       <c r="O8">
-        <v>22.31677588811809</v>
+        <v>15.25148865579005</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.651025540820914</v>
+        <v>14.3211469244385</v>
       </c>
       <c r="C9">
-        <v>5.707926457291661</v>
+        <v>7.493235482188966</v>
       </c>
       <c r="D9">
-        <v>5.134677680861452</v>
+        <v>5.010859911902807</v>
       </c>
       <c r="E9">
-        <v>13.07784817311715</v>
+        <v>16.36765972458723</v>
       </c>
       <c r="F9">
-        <v>24.95614923766875</v>
+        <v>20.05951179213635</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.713189693693664</v>
+        <v>12.52950215133282</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.9291645895561</v>
+        <v>16.42392675298521</v>
       </c>
       <c r="N9">
-        <v>18.61300869739638</v>
+        <v>11.6590574144038</v>
       </c>
       <c r="O9">
-        <v>22.22113129400507</v>
+        <v>15.60159556617698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.12450650574267</v>
+        <v>15.57802040284773</v>
       </c>
       <c r="C10">
-        <v>5.908240153230782</v>
+        <v>7.952867783763071</v>
       </c>
       <c r="D10">
-        <v>5.21950481194796</v>
+        <v>5.23818735789918</v>
       </c>
       <c r="E10">
-        <v>13.48596245894419</v>
+        <v>17.97457650820071</v>
       </c>
       <c r="F10">
-        <v>25.01461590410904</v>
+        <v>20.94828326154837</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.041585856328867</v>
+        <v>13.50683812205333</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.25345350989054</v>
+        <v>17.87979228646759</v>
       </c>
       <c r="N10">
-        <v>18.51614322706785</v>
+        <v>11.29811826086798</v>
       </c>
       <c r="O10">
-        <v>22.17434832336486</v>
+        <v>15.92713464622464</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.33413131093119</v>
+        <v>16.12038695669967</v>
       </c>
       <c r="C11">
-        <v>5.996378294839326</v>
+        <v>8.153940171191818</v>
       </c>
       <c r="D11">
-        <v>5.25711664657133</v>
+        <v>5.337960510915685</v>
       </c>
       <c r="E11">
-        <v>13.67180371275995</v>
+        <v>18.6755917855887</v>
       </c>
       <c r="F11">
-        <v>25.04798163833399</v>
+        <v>21.36309001242581</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.1883655165755</v>
+        <v>13.93041544809933</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.40181944346939</v>
+        <v>18.51152213322842</v>
       </c>
       <c r="N11">
-        <v>18.4738524648921</v>
+        <v>11.1358939850522</v>
       </c>
       <c r="O11">
-        <v>22.15818765175485</v>
+        <v>16.09095447210052</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.41260754905401</v>
+        <v>16.32158880060235</v>
       </c>
       <c r="C12">
-        <v>6.029306675219178</v>
+        <v>8.228911531244512</v>
       </c>
       <c r="D12">
-        <v>5.271213807230005</v>
+        <v>5.375201471195719</v>
       </c>
       <c r="E12">
-        <v>13.74212883153397</v>
+        <v>18.93685013788523</v>
       </c>
       <c r="F12">
-        <v>25.0615836463944</v>
+        <v>21.52160316118402</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.243518024647152</v>
+        <v>14.08780021183884</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.45807078135602</v>
+        <v>18.74642571182994</v>
       </c>
       <c r="N12">
-        <v>18.45809177892035</v>
+        <v>11.07471229389073</v>
       </c>
       <c r="O12">
-        <v>22.1528057358506</v>
+        <v>16.15531548541117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.39574761277598</v>
+        <v>16.27844155131438</v>
       </c>
       <c r="C13">
-        <v>6.022235142787358</v>
+        <v>8.212817378596101</v>
       </c>
       <c r="D13">
-        <v>5.268184289387937</v>
+        <v>5.367205281079112</v>
       </c>
       <c r="E13">
-        <v>13.72698641358883</v>
+        <v>18.88076844256856</v>
       </c>
       <c r="F13">
-        <v>25.05861130896146</v>
+        <v>21.48740180836532</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.231659885792523</v>
+        <v>14.05403847207139</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.44595384402784</v>
+        <v>18.69602584136412</v>
       </c>
       <c r="N13">
-        <v>18.46147485047704</v>
+        <v>11.08787835068526</v>
       </c>
       <c r="O13">
-        <v>22.15393199634905</v>
+        <v>16.14134976907442</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.34060612129979</v>
+        <v>16.13702346450581</v>
       </c>
       <c r="C14">
-        <v>5.999096402968407</v>
+        <v>8.160131646341789</v>
       </c>
       <c r="D14">
-        <v>5.258279376270731</v>
+        <v>5.341035282084294</v>
       </c>
       <c r="E14">
-        <v>13.67759080802442</v>
+        <v>18.69716919005846</v>
       </c>
       <c r="F14">
-        <v>25.04908134088673</v>
+        <v>21.37610262840579</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.19291185817038</v>
+        <v>13.94342393867642</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.40644620549683</v>
+        <v>18.53093389546094</v>
       </c>
       <c r="N14">
-        <v>18.47255074172415</v>
+        <v>11.13085574020686</v>
       </c>
       <c r="O14">
-        <v>22.15773008537411</v>
+        <v>16.096202524486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.30671052323036</v>
+        <v>16.04985778293129</v>
       </c>
       <c r="C15">
-        <v>5.984864445866256</v>
+        <v>8.127707273168969</v>
       </c>
       <c r="D15">
-        <v>5.252193214453197</v>
+        <v>5.324934466520717</v>
       </c>
       <c r="E15">
-        <v>13.64732599594876</v>
+        <v>18.58416571925131</v>
       </c>
       <c r="F15">
-        <v>25.04336970398225</v>
+        <v>21.30811343864466</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.169120052767193</v>
+        <v>13.87527707960873</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.3822539798039</v>
+        <v>18.42925020679336</v>
       </c>
       <c r="N15">
-        <v>18.47936807678274</v>
+        <v>11.15721202934271</v>
       </c>
       <c r="O15">
-        <v>22.16015264049479</v>
+        <v>16.06885326853902</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.11068442850404</v>
+        <v>15.54198788597479</v>
       </c>
       <c r="C16">
-        <v>5.902418442252207</v>
+        <v>7.939564273796116</v>
       </c>
       <c r="D16">
-        <v>5.217026692101729</v>
+        <v>5.231592156701944</v>
       </c>
       <c r="E16">
-        <v>13.47381452064807</v>
+        <v>17.9281694070938</v>
       </c>
       <c r="F16">
-        <v>25.01257107683998</v>
+        <v>20.92137935574349</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.031936201488847</v>
+        <v>13.47873389212229</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.2437698896828</v>
+        <v>17.83789868659431</v>
       </c>
       <c r="N16">
-        <v>18.51894262182152</v>
+        <v>11.30875675945666</v>
       </c>
       <c r="O16">
-        <v>22.17550763552608</v>
+        <v>15.91675074859101</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.988896360876407</v>
+        <v>15.22292986920164</v>
       </c>
       <c r="C17">
-        <v>5.851062311722158</v>
+        <v>7.822076947057511</v>
       </c>
       <c r="D17">
-        <v>5.19519931679616</v>
+        <v>5.173384298136035</v>
       </c>
       <c r="E17">
-        <v>13.36736407085973</v>
+        <v>17.51813331534842</v>
       </c>
       <c r="F17">
-        <v>24.99540673929832</v>
+        <v>20.68676402542985</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.947069981301093</v>
+        <v>13.23008732305188</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.15899276365411</v>
+        <v>17.46734951262733</v>
       </c>
       <c r="N17">
-        <v>18.54367380973258</v>
+        <v>11.40220528466204</v>
       </c>
       <c r="O17">
-        <v>22.18624014414004</v>
+        <v>15.82751676941689</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.918308523074717</v>
+        <v>15.03664671555983</v>
       </c>
       <c r="C18">
-        <v>5.821243604732414</v>
+        <v>7.753747435258695</v>
       </c>
       <c r="D18">
-        <v>5.182553181078505</v>
+        <v>5.139563041346142</v>
       </c>
       <c r="E18">
-        <v>13.3061586651367</v>
+        <v>17.27946233915102</v>
       </c>
       <c r="F18">
-        <v>24.98617183988176</v>
+        <v>20.55281191165524</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.898014581437454</v>
+        <v>13.08509314941801</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.11031389705279</v>
+        <v>17.25133894834891</v>
       </c>
       <c r="N18">
-        <v>18.55806556482421</v>
+        <v>11.4561418729545</v>
       </c>
       <c r="O18">
-        <v>22.19289516244565</v>
+        <v>15.77766887710761</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.894318619669617</v>
+        <v>14.97309744655089</v>
       </c>
       <c r="C19">
-        <v>5.811099991834833</v>
+        <v>7.730483386501244</v>
       </c>
       <c r="D19">
-        <v>5.17825584475158</v>
+        <v>5.128053643428088</v>
       </c>
       <c r="E19">
-        <v>13.28544171903561</v>
+        <v>17.19816338130443</v>
       </c>
       <c r="F19">
-        <v>24.98315473653639</v>
+        <v>20.50763089133581</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.881365325745367</v>
+        <v>13.03566056958639</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.09384790722105</v>
+        <v>17.17770461128803</v>
       </c>
       <c r="N19">
-        <v>18.56296708908597</v>
+        <v>11.47443707326786</v>
       </c>
       <c r="O19">
-        <v>22.19523116825374</v>
+        <v>15.76104290887085</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.00191721818545</v>
+        <v>15.25718044251389</v>
       </c>
       <c r="C20">
-        <v>5.856558377772289</v>
+        <v>7.834661846625729</v>
       </c>
       <c r="D20">
-        <v>5.197532397380261</v>
+        <v>5.179616117060371</v>
       </c>
       <c r="E20">
-        <v>13.37869417740274</v>
+        <v>17.56207439232496</v>
       </c>
       <c r="F20">
-        <v>24.99716796734034</v>
+        <v>20.71163708579796</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.956129650392917</v>
+        <v>13.25676098783099</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.16800926310417</v>
+        <v>17.50709270798301</v>
       </c>
       <c r="N20">
-        <v>18.54102385405698</v>
+        <v>11.39223836666851</v>
       </c>
       <c r="O20">
-        <v>22.18504775798571</v>
+        <v>15.83686252302513</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.35682761232681</v>
+        <v>16.17867446299899</v>
       </c>
       <c r="C21">
-        <v>6.005905098423481</v>
+        <v>8.175638598136841</v>
       </c>
       <c r="D21">
-        <v>5.261192682288145</v>
+        <v>5.348736856448189</v>
       </c>
       <c r="E21">
-        <v>13.69210141368791</v>
+        <v>18.7512098202764</v>
       </c>
       <c r="F21">
-        <v>25.0518543314005</v>
+        <v>21.40875551102097</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.204305172023512</v>
+        <v>13.97599583215107</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.41804911964129</v>
+        <v>18.57954198419782</v>
       </c>
       <c r="N21">
-        <v>18.46929060223746</v>
+        <v>11.11822575977247</v>
       </c>
       <c r="O21">
-        <v>22.15659446208823</v>
+        <v>16.10939975015769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.58348270643639</v>
+        <v>16.75657995889705</v>
       </c>
       <c r="C22">
-        <v>6.10089529963492</v>
+        <v>8.391660600822082</v>
       </c>
       <c r="D22">
-        <v>5.301947245523525</v>
+        <v>5.456107222266807</v>
       </c>
       <c r="E22">
-        <v>13.89661285547333</v>
+        <v>19.50395145189169</v>
       </c>
       <c r="F22">
-        <v>25.09322848717161</v>
+        <v>21.87269771851227</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.363974696490027</v>
+        <v>14.42849348659948</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.58183928465981</v>
+        <v>19.2553159919126</v>
       </c>
       <c r="N22">
-        <v>18.423888210822</v>
+        <v>10.94057737430685</v>
       </c>
       <c r="O22">
-        <v>22.1422993447554</v>
+        <v>16.30110300168311</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.46302035129782</v>
+        <v>16.45035240077615</v>
       </c>
       <c r="C23">
-        <v>6.050442311631133</v>
+        <v>8.276994484645334</v>
       </c>
       <c r="D23">
-        <v>5.280275324058191</v>
+        <v>5.399096021068704</v>
       </c>
       <c r="E23">
-        <v>13.78751470104574</v>
+        <v>19.10439488444209</v>
       </c>
       <c r="F23">
-        <v>25.07063322034979</v>
+        <v>21.62434287446514</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.279004340172341</v>
+        <v>14.18858971267518</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.49440440430087</v>
+        <v>18.89691594692089</v>
       </c>
       <c r="N23">
-        <v>18.44798533578674</v>
+        <v>11.03527219513547</v>
       </c>
       <c r="O23">
-        <v>22.14953502809092</v>
+        <v>16.19752437504292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.996032259007585</v>
+        <v>15.24170464649602</v>
       </c>
       <c r="C24">
-        <v>5.854074518758075</v>
+        <v>7.828974655616448</v>
       </c>
       <c r="D24">
-        <v>5.196477914273091</v>
+        <v>5.176799821662415</v>
       </c>
       <c r="E24">
-        <v>13.37357184794311</v>
+        <v>17.54221778386998</v>
       </c>
       <c r="F24">
-        <v>24.99636974358033</v>
+        <v>20.70038906839322</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.952034594218294</v>
+        <v>13.2447081909166</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.16393271076893</v>
+        <v>17.48913408730565</v>
       </c>
       <c r="N24">
-        <v>18.54222135857185</v>
+        <v>11.39674374808268</v>
       </c>
       <c r="O24">
-        <v>22.18558532586302</v>
+        <v>15.83263278410286</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.472096331963352</v>
+        <v>13.83194312801357</v>
       </c>
       <c r="C25">
-        <v>5.631641703196965</v>
+        <v>7.317014895679486</v>
       </c>
       <c r="D25">
-        <v>5.102608798973709</v>
+        <v>4.924047641747253</v>
       </c>
       <c r="E25">
-        <v>12.92824092270033</v>
+        <v>15.74864460386117</v>
       </c>
       <c r="F25">
-        <v>24.94065427313298</v>
+        <v>19.74205572939371</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.590324488098108</v>
+        <v>12.15094654093266</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.81084798179818</v>
+        <v>15.86024721234653</v>
       </c>
       <c r="N25">
-        <v>18.6502611353412</v>
+        <v>11.79393731420828</v>
       </c>
       <c r="O25">
-        <v>22.24288933889773</v>
+        <v>15.49520434793652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.70104993970639</v>
+        <v>21.13759575174909</v>
       </c>
       <c r="C2">
-        <v>6.91629797797393</v>
+        <v>15.59619693851461</v>
       </c>
       <c r="D2">
-        <v>4.727533264230923</v>
+        <v>2.704208915864927</v>
       </c>
       <c r="E2">
-        <v>14.50410927589714</v>
+        <v>5.68509184593158</v>
       </c>
       <c r="F2">
-        <v>19.07222179912355</v>
+        <v>44.28589685726494</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>4.019526026038592</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.512648514345501</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>11.28058834331412</v>
+        <v>29.71123932666832</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.753478991740216</v>
       </c>
       <c r="M2">
-        <v>14.56341358541312</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.09387278253784</v>
+        <v>6.742354478860181</v>
       </c>
       <c r="O2">
-        <v>15.29232054240431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.28080809271147</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.87595232375574</v>
+        <v>19.83279786106357</v>
       </c>
       <c r="C3">
-        <v>6.63059849115417</v>
+        <v>14.5047809903844</v>
       </c>
       <c r="D3">
-        <v>4.588314564208522</v>
+        <v>2.62114100044868</v>
       </c>
       <c r="E3">
-        <v>13.63613708244769</v>
+        <v>5.487134279942778</v>
       </c>
       <c r="F3">
-        <v>18.64207369167723</v>
+        <v>42.66599660092189</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>4.348207264147466</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.793216440127483</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.65050666888582</v>
+        <v>28.86932058166525</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.650659845993652</v>
       </c>
       <c r="M3">
-        <v>13.62266861723145</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.30237025225939</v>
+        <v>6.560630160764375</v>
       </c>
       <c r="O3">
-        <v>15.18167722528524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.69554052532534</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.34019406508206</v>
+        <v>18.99097149683077</v>
       </c>
       <c r="C4">
-        <v>6.448519228933256</v>
+        <v>13.8014165918733</v>
       </c>
       <c r="D4">
-        <v>4.500034881594405</v>
+        <v>2.568541129761476</v>
       </c>
       <c r="E4">
-        <v>13.08706077707086</v>
+        <v>5.362359896814888</v>
       </c>
       <c r="F4">
-        <v>18.39017060505942</v>
+        <v>41.64130863427585</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>4.556143630133795</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.971188180270136</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.24402259130108</v>
+        <v>28.33751889421179</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.585419630969055</v>
       </c>
       <c r="M4">
-        <v>13.01426473846026</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.43313956789833</v>
+        <v>6.447561816069118</v>
       </c>
       <c r="O4">
-        <v>15.12640761331304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.32531931045321</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.11451648359342</v>
+        <v>18.63769012181016</v>
       </c>
       <c r="C5">
-        <v>6.372702789665881</v>
+        <v>13.5128921755271</v>
       </c>
       <c r="D5">
-        <v>4.463386739797212</v>
+        <v>2.540951772517323</v>
       </c>
       <c r="E5">
-        <v>12.85945504884025</v>
+        <v>5.310305432167391</v>
       </c>
       <c r="F5">
-        <v>18.29065315187703</v>
+        <v>41.18277458956949</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>4.643150124514651</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.047714731784136</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.07349771485405</v>
+        <v>28.09178189218798</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.557521546890896</v>
       </c>
       <c r="M5">
-        <v>12.75856727023576</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.48714465839274</v>
+        <v>6.402729663253713</v>
       </c>
       <c r="O5">
-        <v>15.10697811650469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.17333321333533</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.07659830780357</v>
+        <v>18.57825836340763</v>
       </c>
       <c r="C6">
-        <v>6.360017662636768</v>
+        <v>13.4724340475783</v>
       </c>
       <c r="D6">
-        <v>4.457261610144739</v>
+        <v>2.5293039518506</v>
       </c>
       <c r="E6">
-        <v>12.82143562615113</v>
+        <v>5.301157340851391</v>
       </c>
       <c r="F6">
-        <v>18.2743194055387</v>
+        <v>41.06483300483294</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>4.658532242829509</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.063717013637457</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.04488934310661</v>
+        <v>28.01962027131998</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.551922627411224</v>
       </c>
       <c r="M6">
-        <v>12.71563914766675</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.49615605401502</v>
+        <v>6.397206068500425</v>
       </c>
       <c r="O6">
-        <v>15.10393590102022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.14971474188888</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.33718029163971</v>
+        <v>18.98575928473125</v>
       </c>
       <c r="C7">
-        <v>6.447503210129178</v>
+        <v>13.81870505127766</v>
       </c>
       <c r="D7">
-        <v>4.499543316606885</v>
+        <v>2.549107261030461</v>
       </c>
       <c r="E7">
-        <v>13.08400649641352</v>
+        <v>5.360433599436617</v>
       </c>
       <c r="F7">
-        <v>18.38881570548952</v>
+        <v>41.52351713300052</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>4.55957808888286</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.980755731249204</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.24174250837929</v>
+        <v>28.24992763822693</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.582527438064274</v>
       </c>
       <c r="M7">
-        <v>13.01084779366451</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.43386497157982</v>
+        <v>6.452209253997042</v>
       </c>
       <c r="O7">
-        <v>15.12613318087582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.32801198995463</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.4225896928755</v>
+        <v>20.69540485268895</v>
       </c>
       <c r="C8">
-        <v>6.819201996068265</v>
+        <v>15.25225847674591</v>
       </c>
       <c r="D8">
-        <v>4.680128886521582</v>
+        <v>2.651557878865212</v>
       </c>
       <c r="E8">
-        <v>14.2082893399416</v>
+        <v>5.615911173963582</v>
       </c>
       <c r="F8">
-        <v>18.92141430874944</v>
+        <v>43.59254303865819</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>4.1345214131522</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.619196953816616</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>11.06743280114993</v>
+        <v>29.3163372351018</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.715258545049286</v>
       </c>
       <c r="M8">
-        <v>14.24541384199335</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.16520640151542</v>
+        <v>6.686757780517875</v>
       </c>
       <c r="O8">
-        <v>15.25148865579005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.08719334846609</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.3211469244385</v>
+        <v>23.72276187949688</v>
       </c>
       <c r="C9">
-        <v>7.493235482188966</v>
+        <v>17.76962475184687</v>
       </c>
       <c r="D9">
-        <v>5.010859911902807</v>
+        <v>3.008797334601904</v>
       </c>
       <c r="E9">
-        <v>16.36765972458723</v>
+        <v>6.094666205579167</v>
       </c>
       <c r="F9">
-        <v>20.05951179213635</v>
+        <v>47.58284970249872</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>3.343588104926321</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.939542884377992</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.52950215133282</v>
+        <v>31.42617928225372</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.963829065188416</v>
       </c>
       <c r="M9">
-        <v>16.42392675298521</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.6590574144038</v>
+        <v>7.124546960440722</v>
       </c>
       <c r="O9">
-        <v>15.60159556617698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.47597149940419</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57802040284773</v>
+        <v>25.75635545410926</v>
       </c>
       <c r="C10">
-        <v>7.952867783763071</v>
+        <v>19.47180545058237</v>
       </c>
       <c r="D10">
-        <v>5.23818735789918</v>
+        <v>3.248346176787329</v>
       </c>
       <c r="E10">
-        <v>17.97457650820071</v>
+        <v>6.452949498835957</v>
       </c>
       <c r="F10">
-        <v>20.94828326154837</v>
+        <v>49.81669825209624</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.820401457969224</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.480876363877042</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.50683812205333</v>
+        <v>32.52143598359348</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.125485016055253</v>
       </c>
       <c r="M10">
-        <v>17.87979228646759</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.29811826086798</v>
+        <v>7.378448301024744</v>
       </c>
       <c r="O10">
-        <v>15.92713464622464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.39631310220535</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.12038695669967</v>
+        <v>26.73108187469466</v>
       </c>
       <c r="C11">
-        <v>8.153940171191818</v>
+        <v>20.22821118291057</v>
       </c>
       <c r="D11">
-        <v>5.337960510915685</v>
+        <v>3.198196444567811</v>
       </c>
       <c r="E11">
-        <v>18.6755917855887</v>
+        <v>6.846105603095507</v>
       </c>
       <c r="F11">
-        <v>21.36309001242581</v>
+        <v>46.56090539480967</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.491354981974493</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.383645543788525</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.93041544809933</v>
+        <v>30.04465684508205</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.15945184367617</v>
       </c>
       <c r="M11">
-        <v>18.51152213322842</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.1358939850522</v>
+        <v>6.986074277946691</v>
       </c>
       <c r="O11">
-        <v>16.09095447210052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.4659824136031</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.32158880060235</v>
+        <v>27.13938377314284</v>
       </c>
       <c r="C12">
-        <v>8.228911531244512</v>
+        <v>20.4958496714522</v>
       </c>
       <c r="D12">
-        <v>5.375201471195719</v>
+        <v>3.134176181821859</v>
       </c>
       <c r="E12">
-        <v>18.93685013788523</v>
+        <v>7.183445840459187</v>
       </c>
       <c r="F12">
-        <v>21.52160316118402</v>
+        <v>43.47204124241011</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.670903864797809</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.373670908582143</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.08780021183884</v>
+        <v>27.8511195696039</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.238436828004859</v>
       </c>
       <c r="M12">
-        <v>18.74642571182994</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.07471229389073</v>
+        <v>6.605304039519636</v>
       </c>
       <c r="O12">
-        <v>16.15531548541117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.32052329948037</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.27844155131438</v>
+        <v>27.14935210124452</v>
       </c>
       <c r="C13">
-        <v>8.212817378596101</v>
+        <v>20.43608421469158</v>
       </c>
       <c r="D13">
-        <v>5.367205281079112</v>
+        <v>3.034159111915341</v>
       </c>
       <c r="E13">
-        <v>18.88076844256856</v>
+        <v>7.49055936785852</v>
       </c>
       <c r="F13">
-        <v>21.48740180836532</v>
+        <v>40.11798196651261</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>6.003565207524575</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.445203253697173</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>14.05403847207139</v>
+        <v>25.60672959518816</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.348352758131205</v>
       </c>
       <c r="M13">
-        <v>18.69602584136412</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.08787835068526</v>
+        <v>6.216721742407663</v>
       </c>
       <c r="O13">
-        <v>16.14134976907442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.00340972440492</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.13702346450581</v>
+        <v>26.97693028505523</v>
       </c>
       <c r="C14">
-        <v>8.160131646341789</v>
+        <v>20.25112028854982</v>
       </c>
       <c r="D14">
-        <v>5.341035282084294</v>
+        <v>2.945266185177349</v>
       </c>
       <c r="E14">
-        <v>18.69716919005846</v>
+        <v>7.698837040926172</v>
       </c>
       <c r="F14">
-        <v>21.37610262840579</v>
+        <v>37.60620054258237</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.980120848892965</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.534326898134526</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.94342393867642</v>
+        <v>24.00017322259964</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.446960031125866</v>
       </c>
       <c r="M14">
-        <v>18.53093389546094</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.13085574020686</v>
+        <v>5.946240755935334</v>
       </c>
       <c r="O14">
-        <v>16.096202524486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.70129612099577</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.04985778293129</v>
+        <v>26.84920379328146</v>
       </c>
       <c r="C15">
-        <v>8.127707273168969</v>
+        <v>20.14171932534223</v>
       </c>
       <c r="D15">
-        <v>5.324934466520717</v>
+        <v>2.911080835255371</v>
       </c>
       <c r="E15">
-        <v>18.58416571925131</v>
+        <v>7.733681397185673</v>
       </c>
       <c r="F15">
-        <v>21.30811343864466</v>
+        <v>36.90194164466173</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.215114593373828</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.578471829079719</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.87527707960873</v>
+        <v>23.57207466587027</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.467368999622986</v>
       </c>
       <c r="M15">
-        <v>18.42925020679336</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.15721202934271</v>
+        <v>5.878838712590049</v>
       </c>
       <c r="O15">
-        <v>16.06885326853902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.5927909332323</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.54198788597479</v>
+        <v>26.02137235163792</v>
       </c>
       <c r="C16">
-        <v>7.939564273796116</v>
+        <v>19.46635197107868</v>
       </c>
       <c r="D16">
-        <v>5.231592156701944</v>
+        <v>2.815943825841553</v>
       </c>
       <c r="E16">
-        <v>17.9281694070938</v>
+        <v>7.530995905391515</v>
       </c>
       <c r="F16">
-        <v>20.92137935574349</v>
+        <v>36.42479487983586</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.088884351281393</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.764706979002721</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.47873389212229</v>
+        <v>23.45610878981566</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.373053123607505</v>
       </c>
       <c r="M16">
-        <v>17.83789868659431</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.30875675945666</v>
+        <v>5.844867274562386</v>
       </c>
       <c r="O16">
-        <v>15.91675074859101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.26168120999355</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.22292986920164</v>
+        <v>25.46792743700377</v>
       </c>
       <c r="C17">
-        <v>7.822076947057511</v>
+        <v>19.04063395485515</v>
       </c>
       <c r="D17">
-        <v>5.173384298136035</v>
+        <v>2.789752504686152</v>
       </c>
       <c r="E17">
-        <v>17.51813331534842</v>
+        <v>7.252930949634262</v>
       </c>
       <c r="F17">
-        <v>20.68676402542985</v>
+        <v>37.42275426339511</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.458369295320741</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.861356016600189</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.23008732305188</v>
+        <v>24.22114651950357</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.240800404500592</v>
       </c>
       <c r="M17">
-        <v>17.46734951262733</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.40220528466204</v>
+        <v>5.961784449368677</v>
       </c>
       <c r="O17">
-        <v>15.82751676941689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.17126402071202</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.03664671555983</v>
+        <v>25.0978635468022</v>
       </c>
       <c r="C18">
-        <v>7.753747435258695</v>
+        <v>18.77564257695705</v>
       </c>
       <c r="D18">
-        <v>5.139563041346142</v>
+        <v>2.83413982979381</v>
       </c>
       <c r="E18">
-        <v>17.27946233915102</v>
+        <v>6.908273142140692</v>
       </c>
       <c r="F18">
-        <v>20.55281191165524</v>
+        <v>39.89851715723777</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.374392608429075</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.878651397890119</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>13.08509314941801</v>
+        <v>25.92455503136627</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.095788438473747</v>
       </c>
       <c r="M18">
-        <v>17.25133894834891</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.4561418729545</v>
+        <v>6.230816388052289</v>
       </c>
       <c r="O18">
-        <v>15.77766887710761</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.27423344204626</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.97309744655089</v>
+        <v>24.90582455375012</v>
       </c>
       <c r="C19">
-        <v>7.730483386501244</v>
+        <v>18.69504153188015</v>
       </c>
       <c r="D19">
-        <v>5.128053643428088</v>
+        <v>2.9210804944077</v>
       </c>
       <c r="E19">
-        <v>17.19816338130443</v>
+        <v>6.585357718122073</v>
       </c>
       <c r="F19">
-        <v>20.50763089133581</v>
+        <v>43.20964441503056</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>4.158313316908446</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.843072444066895</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>13.03566056958639</v>
+        <v>28.16947510601383</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.008378656340332</v>
       </c>
       <c r="M19">
-        <v>17.17770461128803</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.47443707326786</v>
+        <v>6.625075497200887</v>
       </c>
       <c r="O19">
-        <v>15.76104290887085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.52675280952716</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.25718044251389</v>
+        <v>25.23419587091536</v>
       </c>
       <c r="C20">
-        <v>7.834661846625729</v>
+        <v>19.08392326912235</v>
       </c>
       <c r="D20">
-        <v>5.179616117060371</v>
+        <v>3.149052940133279</v>
       </c>
       <c r="E20">
-        <v>17.56207439232496</v>
+        <v>6.356981758633651</v>
       </c>
       <c r="F20">
-        <v>20.71163708579796</v>
+        <v>48.92159168009275</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.96273010927553</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.629796955275828</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.25676098783099</v>
+        <v>31.99209362706014</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.076326745308988</v>
       </c>
       <c r="M20">
-        <v>17.50709270798301</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.39223836666851</v>
+        <v>7.324159856102776</v>
       </c>
       <c r="O20">
-        <v>15.83686252302513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.16878145486049</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.17867446299899</v>
+        <v>26.71325482743335</v>
       </c>
       <c r="C21">
-        <v>8.175638598136841</v>
+        <v>20.33063181274411</v>
       </c>
       <c r="D21">
-        <v>5.348736856448189</v>
+        <v>3.361017349970659</v>
       </c>
       <c r="E21">
-        <v>18.7512098202764</v>
+        <v>6.598406131538474</v>
       </c>
       <c r="F21">
-        <v>21.40875551102097</v>
+        <v>51.3937230046694</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.51904538883451</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.263256172188889</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.97599583215107</v>
+        <v>33.37742828699059</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.217005339103535</v>
       </c>
       <c r="M21">
-        <v>18.57954198419782</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.11822575977247</v>
+        <v>7.606005057895529</v>
       </c>
       <c r="O21">
-        <v>16.10939975015769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.9112556262991</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75657995889705</v>
+        <v>27.65059122464737</v>
       </c>
       <c r="C22">
-        <v>8.391660600822082</v>
+        <v>21.10063473964612</v>
       </c>
       <c r="D22">
-        <v>5.456107222266807</v>
+        <v>3.500611114397297</v>
       </c>
       <c r="E22">
-        <v>19.50395145189169</v>
+        <v>6.766182418584274</v>
       </c>
       <c r="F22">
-        <v>21.87269771851227</v>
+        <v>52.84419055228248</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.245273943397877</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.020333787805706</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.42849348659948</v>
+        <v>34.18590720419522</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.304839133840858</v>
       </c>
       <c r="M22">
-        <v>19.2553159919126</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.94057737430685</v>
+        <v>7.751280637628017</v>
       </c>
       <c r="O22">
-        <v>16.30110300168311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.35949617364199</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.45035240077615</v>
+        <v>27.1547017501066</v>
       </c>
       <c r="C23">
-        <v>8.276994484645334</v>
+        <v>20.67491311930074</v>
       </c>
       <c r="D23">
-        <v>5.399096021068704</v>
+        <v>3.439847361207756</v>
       </c>
       <c r="E23">
-        <v>19.10439488444209</v>
+        <v>6.678078786629765</v>
       </c>
       <c r="F23">
-        <v>21.62434287446514</v>
+        <v>52.18065362094536</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.388687852293165</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.137561931946492</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.18858971267518</v>
+        <v>33.84055654831466</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.260590496884913</v>
       </c>
       <c r="M23">
-        <v>18.89691594692089</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.03527219513547</v>
+        <v>7.668587059143826</v>
       </c>
       <c r="O23">
-        <v>16.19752437504292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.1173290611064</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.24170464649602</v>
+        <v>25.2016096880024</v>
       </c>
       <c r="C24">
-        <v>7.828974655616448</v>
+        <v>19.03546715587467</v>
       </c>
       <c r="D24">
-        <v>5.176799821662415</v>
+        <v>3.180617255330596</v>
       </c>
       <c r="E24">
-        <v>17.54221778386998</v>
+        <v>6.339205726141356</v>
       </c>
       <c r="F24">
-        <v>20.70038906839322</v>
+        <v>49.43466459236104</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.942518419964961</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.609101392441501</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.2447081909166</v>
+        <v>32.36932477449775</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.086805287648099</v>
       </c>
       <c r="M24">
-        <v>17.48913408730565</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.39674374808268</v>
+        <v>7.359387708206225</v>
       </c>
       <c r="O24">
-        <v>15.83263278410286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.18097775560925</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.83194312801357</v>
+        <v>22.93776312380306</v>
       </c>
       <c r="C25">
-        <v>7.317014895679486</v>
+        <v>17.14703792228012</v>
       </c>
       <c r="D25">
-        <v>4.924047641747253</v>
+        <v>2.883799156376162</v>
       </c>
       <c r="E25">
-        <v>15.74864460386117</v>
+        <v>5.96548177016173</v>
       </c>
       <c r="F25">
-        <v>19.74205572939371</v>
+        <v>46.35142155554169</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.556721942684278</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.134737787594304</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>12.15094654093266</v>
+        <v>30.72963207960658</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.894044651010702</v>
       </c>
       <c r="M25">
-        <v>15.86024721234653</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.79393731420828</v>
+        <v>7.016502229479459</v>
       </c>
       <c r="O25">
-        <v>15.49520434793652</v>
+        <v>14.11815582517169</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.13759575174909</v>
+        <v>21.02136735559383</v>
       </c>
       <c r="C2">
-        <v>15.59619693851461</v>
+        <v>16.65667617641671</v>
       </c>
       <c r="D2">
-        <v>2.704208915864927</v>
+        <v>2.341730459324962</v>
       </c>
       <c r="E2">
-        <v>5.68509184593158</v>
+        <v>5.835812835454511</v>
       </c>
       <c r="F2">
-        <v>44.28589685726494</v>
+        <v>37.96055449754921</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.019526026038592</v>
+        <v>3.740872776491727</v>
       </c>
       <c r="I2">
-        <v>4.512648514345501</v>
+        <v>4.175585594216065</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>29.71123932666832</v>
+        <v>24.71352564730722</v>
       </c>
       <c r="L2">
-        <v>5.753478991740216</v>
+        <v>19.12080835343785</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>17.64158992596746</v>
       </c>
       <c r="N2">
-        <v>6.742354478860181</v>
+        <v>5.671918540248893</v>
       </c>
       <c r="O2">
-        <v>13.28080809271147</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.248303164194281</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.46596863235484</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.83279786106357</v>
+        <v>19.69552228338586</v>
       </c>
       <c r="C3">
-        <v>14.5047809903844</v>
+        <v>15.47410542366598</v>
       </c>
       <c r="D3">
-        <v>2.62114100044868</v>
+        <v>2.255304230763561</v>
       </c>
       <c r="E3">
-        <v>5.487134279942778</v>
+        <v>5.655831144934053</v>
       </c>
       <c r="F3">
-        <v>42.66599660092189</v>
+        <v>36.93936413025989</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.348207264147466</v>
+        <v>4.036934311038767</v>
       </c>
       <c r="I3">
-        <v>4.793216440127483</v>
+        <v>4.419078074062998</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>28.86932058166525</v>
+        <v>24.34211332847941</v>
       </c>
       <c r="L3">
-        <v>5.650659845993652</v>
+        <v>18.94308931001552</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.27936393387876</v>
       </c>
       <c r="N3">
-        <v>6.560630160764375</v>
+        <v>5.581211969717931</v>
       </c>
       <c r="O3">
-        <v>12.69554052532534</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.047821776425176</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.84474817912281</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.99097149683077</v>
+        <v>18.83700809622017</v>
       </c>
       <c r="C4">
-        <v>13.8014165918733</v>
+        <v>14.71071363185124</v>
       </c>
       <c r="D4">
-        <v>2.568541129761476</v>
+        <v>2.200582391349994</v>
       </c>
       <c r="E4">
-        <v>5.362359896814888</v>
+        <v>5.542328393114068</v>
       </c>
       <c r="F4">
-        <v>41.64130863427585</v>
+        <v>36.29757257717204</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.556143630133795</v>
+        <v>4.224480618852186</v>
       </c>
       <c r="I4">
-        <v>4.971188180270136</v>
+        <v>4.573969263605955</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>28.33751889421179</v>
+        <v>24.10813866184301</v>
       </c>
       <c r="L4">
-        <v>5.585419630969055</v>
+        <v>18.82231371913059</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>17.0693418851722</v>
       </c>
       <c r="N4">
-        <v>6.447561816069118</v>
+        <v>5.523721645452278</v>
       </c>
       <c r="O4">
-        <v>12.32531931045321</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.92316777994217</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.450292431436</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.63769012181016</v>
+        <v>18.47591621490579</v>
       </c>
       <c r="C5">
-        <v>13.5128921755271</v>
+        <v>14.39564829706412</v>
       </c>
       <c r="D5">
-        <v>2.540951772517323</v>
+        <v>2.176128816117693</v>
       </c>
       <c r="E5">
-        <v>5.310305432167391</v>
+        <v>5.494987457542521</v>
       </c>
       <c r="F5">
-        <v>41.18277458956949</v>
+        <v>36.00590386583561</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.643150124514651</v>
+        <v>4.302967525996665</v>
       </c>
       <c r="I5">
-        <v>5.047714731784136</v>
+        <v>4.641297488696964</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>28.09178189218798</v>
+        <v>23.99218323101535</v>
       </c>
       <c r="L5">
-        <v>5.557521546890896</v>
+        <v>18.75414128316624</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.97409942233342</v>
       </c>
       <c r="N5">
-        <v>6.402729663253713</v>
+        <v>5.499419215387187</v>
       </c>
       <c r="O5">
-        <v>12.17333321333533</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.873311810360824</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.28763756377985</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.57825836340763</v>
+        <v>18.41511301160578</v>
       </c>
       <c r="C6">
-        <v>13.4724340475783</v>
+        <v>14.34941168492022</v>
       </c>
       <c r="D6">
-        <v>2.5293039518506</v>
+        <v>2.169955911898686</v>
       </c>
       <c r="E6">
-        <v>5.301157340851391</v>
+        <v>5.486695268621256</v>
       </c>
       <c r="F6">
-        <v>41.06483300483294</v>
+        <v>35.92471845438761</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.658532242829509</v>
+        <v>4.316793079240092</v>
       </c>
       <c r="I6">
-        <v>5.063717013637457</v>
+        <v>4.656164095567518</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>28.01962027131998</v>
+        <v>23.94944981417552</v>
       </c>
       <c r="L6">
-        <v>5.551922627411224</v>
+        <v>18.72310291819864</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.94267396658829</v>
       </c>
       <c r="N6">
-        <v>6.397206068500425</v>
+        <v>5.494855948576605</v>
       </c>
       <c r="O6">
-        <v>12.14971474188888</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.866589804630887</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.26190178221178</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.98575928473125</v>
+        <v>18.83167325251484</v>
       </c>
       <c r="C7">
-        <v>13.81870505127766</v>
+        <v>14.72416995091395</v>
       </c>
       <c r="D7">
-        <v>2.549107261030461</v>
+        <v>2.194631524272751</v>
       </c>
       <c r="E7">
-        <v>5.360433599436617</v>
+        <v>5.540656467351615</v>
       </c>
       <c r="F7">
-        <v>41.52351713300052</v>
+        <v>36.20579418097095</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.55957808888286</v>
+        <v>4.227425944853768</v>
       </c>
       <c r="I7">
-        <v>4.980755731249204</v>
+        <v>4.584445102701476</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>28.24992763822693</v>
+        <v>24.04324349225215</v>
       </c>
       <c r="L7">
-        <v>5.582527438064274</v>
+        <v>18.76903046337739</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>17.02464015671432</v>
       </c>
       <c r="N7">
-        <v>6.452209253997042</v>
+        <v>5.52206753178532</v>
       </c>
       <c r="O7">
-        <v>12.32801198995463</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.926766557936779</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.45199882010602</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.69540485268895</v>
+        <v>20.57269675081639</v>
       </c>
       <c r="C8">
-        <v>15.25225847674591</v>
+        <v>16.27797640608524</v>
       </c>
       <c r="D8">
-        <v>2.651557878865212</v>
+        <v>2.305262217540311</v>
       </c>
       <c r="E8">
-        <v>5.615911173963582</v>
+        <v>5.773045855845669</v>
       </c>
       <c r="F8">
-        <v>43.59254303865819</v>
+        <v>37.50010529304726</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.1345214131522</v>
+        <v>3.844176263489903</v>
       </c>
       <c r="I8">
-        <v>4.619196953816616</v>
+        <v>4.270724263417247</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>29.3163372351018</v>
+        <v>24.50543988070519</v>
       </c>
       <c r="L8">
-        <v>5.715258545049286</v>
+        <v>18.99678577880021</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.45631472814092</v>
       </c>
       <c r="N8">
-        <v>6.686757780517875</v>
+        <v>5.639406321640164</v>
       </c>
       <c r="O8">
-        <v>13.08719334846609</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.185020483675119</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.25934638600017</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72276187949688</v>
+        <v>23.63344194660406</v>
       </c>
       <c r="C9">
-        <v>17.76962475184687</v>
+        <v>19.00385475423536</v>
       </c>
       <c r="D9">
-        <v>3.008797334601904</v>
+        <v>2.519044233255428</v>
       </c>
       <c r="E9">
-        <v>6.094666205579167</v>
+        <v>6.207784989149435</v>
       </c>
       <c r="F9">
-        <v>47.58284970249872</v>
+        <v>40.06166980644081</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.343588104926321</v>
+        <v>3.133487316852672</v>
       </c>
       <c r="I9">
-        <v>3.939542884377992</v>
+        <v>3.681195106035936</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>31.42617928225372</v>
+        <v>25.47272351923326</v>
       </c>
       <c r="L9">
-        <v>5.963829065188416</v>
+        <v>19.43808911826692</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.47258712393205</v>
       </c>
       <c r="N9">
-        <v>7.124546960440722</v>
+        <v>5.857915973084911</v>
       </c>
       <c r="O9">
-        <v>14.47597149940419</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.669884669384938</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.72667660802768</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.75635545410926</v>
+        <v>25.67706179373676</v>
       </c>
       <c r="C10">
-        <v>19.47180545058237</v>
+        <v>20.82013270835401</v>
       </c>
       <c r="D10">
-        <v>3.248346176787329</v>
+        <v>2.669330630261259</v>
       </c>
       <c r="E10">
-        <v>6.452949498835957</v>
+        <v>6.534790044748386</v>
       </c>
       <c r="F10">
-        <v>49.81669825209624</v>
+        <v>41.46339210316201</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.820401457969224</v>
+        <v>2.666003342293283</v>
       </c>
       <c r="I10">
-        <v>3.480876363877042</v>
+        <v>3.286459788429002</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>32.52143598359348</v>
+        <v>25.89500134251033</v>
       </c>
       <c r="L10">
-        <v>6.125485016055253</v>
+        <v>19.51323529992847</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.06864602326659</v>
       </c>
       <c r="N10">
-        <v>7.378448301024744</v>
+        <v>6.011533613121721</v>
       </c>
       <c r="O10">
-        <v>15.39631310220535</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.949211589703848</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.6890199498123</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.73108187469466</v>
+        <v>26.66129763487832</v>
       </c>
       <c r="C11">
-        <v>20.22821118291057</v>
+        <v>21.47309339250648</v>
       </c>
       <c r="D11">
-        <v>3.198196444567811</v>
+        <v>2.747330711793495</v>
       </c>
       <c r="E11">
-        <v>6.846105603095507</v>
+        <v>6.917339733103881</v>
       </c>
       <c r="F11">
-        <v>46.56090539480967</v>
+        <v>38.89928500218737</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.491354981974493</v>
+        <v>3.372365987871866</v>
       </c>
       <c r="I11">
-        <v>3.383645543788525</v>
+        <v>3.199962409275453</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>30.04465684508205</v>
+        <v>24.02970340660693</v>
       </c>
       <c r="L11">
-        <v>6.15945184367617</v>
+        <v>18.00870509364038</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.77680895719448</v>
       </c>
       <c r="N11">
-        <v>6.986074277946691</v>
+        <v>6.141284029019538</v>
       </c>
       <c r="O11">
-        <v>15.4659824136031</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.502238322027598</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.7351941231085</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.13938377314284</v>
+        <v>27.07679330822135</v>
       </c>
       <c r="C12">
-        <v>20.4958496714522</v>
+        <v>21.63218662968462</v>
       </c>
       <c r="D12">
-        <v>3.134176181821859</v>
+        <v>2.787540011917327</v>
       </c>
       <c r="E12">
-        <v>7.183445840459187</v>
+        <v>7.251788130400046</v>
       </c>
       <c r="F12">
-        <v>43.47204124241011</v>
+        <v>36.53967873468454</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.670903864797809</v>
+        <v>4.57768970887049</v>
       </c>
       <c r="I12">
-        <v>3.373670908582143</v>
+        <v>3.184890396820352</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>27.8511195696039</v>
+        <v>22.47137638560796</v>
       </c>
       <c r="L12">
-        <v>6.238436828004859</v>
+        <v>16.82062457485329</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.6217004257999</v>
       </c>
       <c r="N12">
-        <v>6.605304039519636</v>
+        <v>6.286565854479803</v>
       </c>
       <c r="O12">
-        <v>15.32052329948037</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.070473897872713</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.56278517134093</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.14935210124452</v>
+        <v>27.09306746430592</v>
       </c>
       <c r="C13">
-        <v>20.43608421469158</v>
+        <v>21.44520647477533</v>
       </c>
       <c r="D13">
-        <v>3.034159111915341</v>
+        <v>2.793843377439758</v>
       </c>
       <c r="E13">
-        <v>7.49055936785852</v>
+        <v>7.561403516169395</v>
       </c>
       <c r="F13">
-        <v>40.11798196651261</v>
+        <v>34.03670077522742</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.003565207524575</v>
+        <v>5.921620832604265</v>
       </c>
       <c r="I13">
-        <v>3.445203253697173</v>
+        <v>3.240928964529327</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>25.60672959518816</v>
+        <v>20.95972129275765</v>
       </c>
       <c r="L13">
-        <v>6.348352758131205</v>
+        <v>15.72112613569491</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.4346284315052</v>
       </c>
       <c r="N13">
-        <v>6.216721742407663</v>
+        <v>6.444215682493216</v>
       </c>
       <c r="O13">
-        <v>15.00340972440492</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.629141520598196</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.21246175963599</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.97693028505523</v>
+        <v>26.92452460933466</v>
       </c>
       <c r="C14">
-        <v>20.25112028854982</v>
+        <v>21.15946558624985</v>
       </c>
       <c r="D14">
-        <v>2.945266185177349</v>
+        <v>2.781758748507881</v>
       </c>
       <c r="E14">
-        <v>7.698837040926172</v>
+        <v>7.773526377526807</v>
       </c>
       <c r="F14">
-        <v>37.60620054258237</v>
+        <v>32.18929592442516</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.980120848892965</v>
+        <v>6.901458348215613</v>
       </c>
       <c r="I14">
-        <v>3.534326898134526</v>
+        <v>3.315283176891628</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>24.00017322259964</v>
+        <v>19.91894211835953</v>
       </c>
       <c r="L14">
-        <v>6.446960031125866</v>
+        <v>14.98306208828438</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.58975078552116</v>
       </c>
       <c r="N14">
-        <v>5.946240755935334</v>
+        <v>6.565485743957042</v>
       </c>
       <c r="O14">
-        <v>14.70129612099577</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.321081235843557</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.8834878503141</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.84920379328146</v>
+        <v>26.79742889813025</v>
       </c>
       <c r="C15">
-        <v>20.14171932534223</v>
+        <v>21.02006266684546</v>
       </c>
       <c r="D15">
-        <v>2.911080835255371</v>
+        <v>2.770627686014062</v>
       </c>
       <c r="E15">
-        <v>7.733681397185673</v>
+        <v>7.810397271904636</v>
       </c>
       <c r="F15">
-        <v>36.90194164466173</v>
+        <v>31.68172443345021</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.215114593373828</v>
+        <v>7.135637983270825</v>
       </c>
       <c r="I15">
-        <v>3.578471829079719</v>
+        <v>3.354121869496505</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>23.57207466587027</v>
+        <v>19.65590397638895</v>
       </c>
       <c r="L15">
-        <v>6.467368999622986</v>
+        <v>14.80212763136377</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.36678773356277</v>
       </c>
       <c r="N15">
-        <v>5.878838712590049</v>
+        <v>6.58951223053576</v>
       </c>
       <c r="O15">
-        <v>14.5927909332323</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.244153699074126</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.76664102655553</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.02137235163792</v>
+        <v>25.96539405804247</v>
       </c>
       <c r="C16">
-        <v>19.46635197107868</v>
+        <v>20.30879199234615</v>
       </c>
       <c r="D16">
-        <v>2.815943825841553</v>
+        <v>2.702439035044966</v>
       </c>
       <c r="E16">
-        <v>7.530995905391515</v>
+        <v>7.618218062113103</v>
       </c>
       <c r="F16">
-        <v>36.42479487983586</v>
+        <v>31.44425905810437</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.088884351281393</v>
+        <v>6.993262224505413</v>
       </c>
       <c r="I16">
-        <v>3.764706979002721</v>
+        <v>3.517321765459679</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>23.45610878981566</v>
+        <v>19.71988211275029</v>
       </c>
       <c r="L16">
-        <v>6.373053123607505</v>
+        <v>14.90121874281878</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.33288413002398</v>
       </c>
       <c r="N16">
-        <v>5.844867274562386</v>
+        <v>6.487398430152835</v>
       </c>
       <c r="O16">
-        <v>14.26168120999355</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.209165381059243</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.42179760913179</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46792743700377</v>
+        <v>25.40625517969768</v>
       </c>
       <c r="C17">
-        <v>19.04063395485515</v>
+        <v>19.91215332336864</v>
       </c>
       <c r="D17">
-        <v>2.789752504686152</v>
+        <v>2.65632731537703</v>
       </c>
       <c r="E17">
-        <v>7.252930949634262</v>
+        <v>7.346830255461774</v>
       </c>
       <c r="F17">
-        <v>37.42275426339511</v>
+        <v>32.26270409846333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.458369295320741</v>
+        <v>6.345422035199845</v>
       </c>
       <c r="I17">
-        <v>3.861356016600189</v>
+        <v>3.604027320546864</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>24.22114651950357</v>
+        <v>20.31739647020168</v>
       </c>
       <c r="L17">
-        <v>6.240800404500592</v>
+        <v>15.37733465016912</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.74635214103459</v>
       </c>
       <c r="N17">
-        <v>5.961784449368677</v>
+        <v>6.338946594450637</v>
       </c>
       <c r="O17">
-        <v>14.17126402071202</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.345037538973831</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.33563331132503</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.0978635468022</v>
+        <v>25.02950333417402</v>
       </c>
       <c r="C18">
-        <v>18.77564257695705</v>
+        <v>19.73837330473109</v>
       </c>
       <c r="D18">
-        <v>2.83413982979381</v>
+        <v>2.626017293975646</v>
       </c>
       <c r="E18">
-        <v>6.908273142140692</v>
+        <v>7.006231579222074</v>
       </c>
       <c r="F18">
-        <v>39.89851715723777</v>
+        <v>34.15509709657793</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.374392608429075</v>
+        <v>5.2387401763462</v>
       </c>
       <c r="I18">
-        <v>3.878651397890119</v>
+        <v>3.620803418673406</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>25.92455503136627</v>
+        <v>21.51544152979706</v>
       </c>
       <c r="L18">
-        <v>6.095788438473747</v>
+        <v>16.29986851519111</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.63239829901085</v>
       </c>
       <c r="N18">
-        <v>6.230816388052289</v>
+        <v>6.160501681123982</v>
       </c>
       <c r="O18">
-        <v>14.27423344204626</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.653379070520963</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.4601285224351</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.90582455375012</v>
+        <v>24.83120538804071</v>
       </c>
       <c r="C19">
-        <v>18.69504153188015</v>
+        <v>19.78455078573143</v>
       </c>
       <c r="D19">
-        <v>2.9210804944077</v>
+        <v>2.603819727321974</v>
       </c>
       <c r="E19">
-        <v>6.585357718122073</v>
+        <v>6.684759869969326</v>
       </c>
       <c r="F19">
-        <v>43.20964441503056</v>
+        <v>36.63904552352684</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.158313316908446</v>
+        <v>3.994660898640162</v>
       </c>
       <c r="I19">
-        <v>3.843072444066895</v>
+        <v>3.596720060372762</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>28.16947510601383</v>
+        <v>23.05261530555747</v>
       </c>
       <c r="L19">
-        <v>6.008378656340332</v>
+        <v>17.47333612110744</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.7861412244774</v>
       </c>
       <c r="N19">
-        <v>6.625075497200887</v>
+        <v>6.016948378768345</v>
       </c>
       <c r="O19">
-        <v>14.52675280952716</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.099707066636294</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.74511380931153</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.23419587091536</v>
+        <v>25.15356736091471</v>
       </c>
       <c r="C20">
-        <v>19.08392326912235</v>
+        <v>20.39477819684647</v>
       </c>
       <c r="D20">
-        <v>3.149052940133279</v>
+        <v>2.616781724186522</v>
       </c>
       <c r="E20">
-        <v>6.356981758633651</v>
+        <v>6.447659893659001</v>
       </c>
       <c r="F20">
-        <v>48.92159168009275</v>
+        <v>40.84757529498707</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.96273010927553</v>
+        <v>2.7922693564419</v>
       </c>
       <c r="I20">
-        <v>3.629796955275828</v>
+        <v>3.422688846659978</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>31.99209362706014</v>
+        <v>25.59855967069138</v>
       </c>
       <c r="L20">
-        <v>6.076326745308988</v>
+        <v>19.35449680329815</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.76836090850507</v>
       </c>
       <c r="N20">
-        <v>7.324159856102776</v>
+        <v>5.968682774882796</v>
       </c>
       <c r="O20">
-        <v>15.16878145486049</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.885377759749551</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.44872735733684</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.71325482743335</v>
+        <v>26.63455715758973</v>
       </c>
       <c r="C21">
-        <v>20.33063181274411</v>
+        <v>21.75152409108407</v>
       </c>
       <c r="D21">
-        <v>3.361017349970659</v>
+        <v>2.731108960746625</v>
       </c>
       <c r="E21">
-        <v>6.598406131538474</v>
+        <v>6.664499300572226</v>
       </c>
       <c r="F21">
-        <v>51.3937230046694</v>
+        <v>42.50882456827497</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.51904538883451</v>
+        <v>2.394975304503246</v>
       </c>
       <c r="I21">
-        <v>3.263256172188889</v>
+        <v>3.108650856764265</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>33.37742828699059</v>
+        <v>26.31310968574731</v>
       </c>
       <c r="L21">
-        <v>6.217005339103535</v>
+        <v>19.70041626455353</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.53776319290309</v>
       </c>
       <c r="N21">
-        <v>7.606005057895529</v>
+        <v>6.083659302033275</v>
       </c>
       <c r="O21">
-        <v>15.9112556262991</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.198361417470075</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.22787204225525</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.65059122464737</v>
+        <v>27.5818519263358</v>
       </c>
       <c r="C22">
-        <v>21.10063473964612</v>
+        <v>22.58342564054652</v>
       </c>
       <c r="D22">
-        <v>3.500611114397297</v>
+        <v>2.811223797158577</v>
       </c>
       <c r="E22">
-        <v>6.766182418584274</v>
+        <v>6.81603573463402</v>
       </c>
       <c r="F22">
-        <v>52.84419055228248</v>
+        <v>43.48540460946854</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.245273943397877</v>
+        <v>2.151028877399584</v>
       </c>
       <c r="I22">
-        <v>3.020333787805706</v>
+        <v>2.897086576423217</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>34.18590720419522</v>
+        <v>26.72676909320723</v>
       </c>
       <c r="L22">
-        <v>6.304839133840858</v>
+        <v>19.87945751185341</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.0109345488188</v>
       </c>
       <c r="N22">
-        <v>7.751280637628017</v>
+        <v>6.159432286657005</v>
       </c>
       <c r="O22">
-        <v>16.35949617364199</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.360808217463576</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.69650987392101</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1547017501066</v>
+        <v>27.07556926594588</v>
       </c>
       <c r="C23">
-        <v>20.67491311930074</v>
+        <v>22.12779143944882</v>
       </c>
       <c r="D23">
-        <v>3.439847361207756</v>
+        <v>2.773346539445167</v>
       </c>
       <c r="E23">
-        <v>6.678078786629765</v>
+        <v>6.736345901957411</v>
       </c>
       <c r="F23">
-        <v>52.18065362094536</v>
+        <v>43.05140176894706</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.388687852293165</v>
+        <v>2.279029876164925</v>
       </c>
       <c r="I23">
-        <v>3.137561931946492</v>
+        <v>2.995813120079851</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>33.84055654831466</v>
+        <v>26.57138104429383</v>
       </c>
       <c r="L23">
-        <v>6.260590496884913</v>
+        <v>19.83304220280718</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.80757159160465</v>
       </c>
       <c r="N23">
-        <v>7.668587059143826</v>
+        <v>6.120162607378952</v>
       </c>
       <c r="O23">
-        <v>16.1173290611064</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.269951544339115</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.44441784028901</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.2016096880024</v>
+        <v>25.12010496817289</v>
       </c>
       <c r="C24">
-        <v>19.03546715587467</v>
+        <v>20.36298963494248</v>
       </c>
       <c r="D24">
-        <v>3.180617255330596</v>
+        <v>2.62110622784443</v>
       </c>
       <c r="E24">
-        <v>6.339205726141356</v>
+        <v>6.429655221010937</v>
       </c>
       <c r="F24">
-        <v>49.43466459236104</v>
+        <v>41.24295283230033</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.942518419964961</v>
+        <v>2.773857849092933</v>
       </c>
       <c r="I24">
-        <v>3.609101392441501</v>
+        <v>3.40048745529225</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>32.36932477449775</v>
+        <v>25.87292779070885</v>
       </c>
       <c r="L24">
-        <v>6.086805287648099</v>
+        <v>19.56543092087693</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.97198101765238</v>
       </c>
       <c r="N24">
-        <v>7.359387708206225</v>
+        <v>5.967683160859043</v>
       </c>
       <c r="O24">
-        <v>15.18097775560925</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.927560332945757</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.46532438338647</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93776312380306</v>
+        <v>22.84232590988318</v>
       </c>
       <c r="C25">
-        <v>17.14703792228012</v>
+        <v>18.32338606605245</v>
       </c>
       <c r="D25">
-        <v>2.883799156376162</v>
+        <v>2.453801825492602</v>
       </c>
       <c r="E25">
-        <v>5.96548177016173</v>
+        <v>6.090744512481851</v>
       </c>
       <c r="F25">
-        <v>46.35142155554169</v>
+        <v>39.23937080111127</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.556721942684278</v>
+        <v>3.32437438407654</v>
       </c>
       <c r="I25">
-        <v>4.134737787594304</v>
+        <v>3.854233291358185</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>30.72963207960658</v>
+        <v>25.10992548163</v>
       </c>
       <c r="L25">
-        <v>5.894044651010702</v>
+        <v>19.24599744044647</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>18.11025924300311</v>
       </c>
       <c r="N25">
-        <v>7.016502229479459</v>
+        <v>5.798246530399056</v>
       </c>
       <c r="O25">
-        <v>14.11815582517169</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.547687049787136</v>
       </c>
       <c r="Q25">
+        <v>14.34813527013041</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
